--- a/reglamentos.xlsx
+++ b/reglamentos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\pablo\Tribu\visualizador_reglamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53FC581-B1C0-4324-B9B6-6E27420B3F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72629DEF-5C9E-4DB7-B624-68CA915D7FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="21206" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="21206" windowHeight="13920" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -5241,9 +5241,9 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A781" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B798" sqref="B798"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.4609375" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="4"/>
@@ -5326,7 +5326,7 @@
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
     </row>
-    <row r="3" spans="1:26" ht="23.25" customHeight="1" outlineLevel="1">
+    <row r="3" spans="1:26" ht="23.25" customHeight="1" outlineLevel="1" collapsed="1">
       <c r="A3" s="5"/>
       <c r="B3" s="4" t="s">
         <v>6</v>
@@ -5358,7 +5358,7 @@
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
     </row>
-    <row r="4" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="4" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="9" t="s">
@@ -5390,7 +5390,7 @@
       <c r="Y4" s="8"/>
       <c r="Z4" s="8"/>
     </row>
-    <row r="5" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="5" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -5420,7 +5420,7 @@
       <c r="Y5" s="8"/>
       <c r="Z5" s="8"/>
     </row>
-    <row r="6" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="6" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -5450,7 +5450,7 @@
       <c r="Y6" s="8"/>
       <c r="Z6" s="8"/>
     </row>
-    <row r="7" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="7" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="9" t="s">
@@ -5482,7 +5482,7 @@
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
     </row>
-    <row r="8" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="8" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -5512,7 +5512,7 @@
       <c r="Y8" s="8"/>
       <c r="Z8" s="8"/>
     </row>
-    <row r="9" spans="1:26" ht="23.25" customHeight="1" outlineLevel="1">
+    <row r="9" spans="1:26" ht="23.25" customHeight="1" outlineLevel="1" collapsed="1">
       <c r="A9" s="5"/>
       <c r="B9" s="4" t="s">
         <v>15</v>
@@ -5544,7 +5544,7 @@
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
     </row>
-    <row r="10" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="10" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="9" t="s">
@@ -5576,7 +5576,7 @@
       <c r="Y10" s="8"/>
       <c r="Z10" s="8"/>
     </row>
-    <row r="11" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="11" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -5606,7 +5606,7 @@
       <c r="Y11" s="8"/>
       <c r="Z11" s="8"/>
     </row>
-    <row r="12" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="12" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -5636,7 +5636,7 @@
       <c r="Y12" s="8"/>
       <c r="Z12" s="8"/>
     </row>
-    <row r="13" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="13" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -5668,7 +5668,7 @@
       <c r="Y13" s="8"/>
       <c r="Z13" s="8"/>
     </row>
-    <row r="14" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="14" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -5698,7 +5698,7 @@
       <c r="Y14" s="8"/>
       <c r="Z14" s="8"/>
     </row>
-    <row r="15" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="15" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -5730,7 +5730,7 @@
       <c r="Y15" s="8"/>
       <c r="Z15" s="8"/>
     </row>
-    <row r="16" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="16" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -5760,7 +5760,7 @@
       <c r="Y16" s="8"/>
       <c r="Z16" s="8"/>
     </row>
-    <row r="17" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="17" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -5790,7 +5790,7 @@
       <c r="Y17" s="8"/>
       <c r="Z17" s="8"/>
     </row>
-    <row r="18" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="18" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -5822,7 +5822,7 @@
       <c r="Y18" s="8"/>
       <c r="Z18" s="8"/>
     </row>
-    <row r="19" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="19" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -5852,7 +5852,7 @@
       <c r="Y19" s="8"/>
       <c r="Z19" s="8"/>
     </row>
-    <row r="20" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="20" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -5882,7 +5882,7 @@
       <c r="Y20" s="8"/>
       <c r="Z20" s="8"/>
     </row>
-    <row r="21" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="21" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -5914,7 +5914,7 @@
       <c r="Y21" s="8"/>
       <c r="Z21" s="8"/>
     </row>
-    <row r="22" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="22" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -5944,7 +5944,7 @@
       <c r="Y22" s="8"/>
       <c r="Z22" s="8"/>
     </row>
-    <row r="23" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="23" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -5976,7 +5976,7 @@
       <c r="Y23" s="8"/>
       <c r="Z23" s="8"/>
     </row>
-    <row r="24" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="24" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -6006,7 +6006,7 @@
       <c r="Y24" s="8"/>
       <c r="Z24" s="8"/>
     </row>
-    <row r="25" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="25" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -6038,7 +6038,7 @@
       <c r="Y25" s="8"/>
       <c r="Z25" s="8"/>
     </row>
-    <row r="26" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="26" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -6068,7 +6068,7 @@
       <c r="Y26" s="8"/>
       <c r="Z26" s="8"/>
     </row>
-    <row r="27" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="27" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -6098,7 +6098,7 @@
       <c r="Y27" s="8"/>
       <c r="Z27" s="8"/>
     </row>
-    <row r="28" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="28" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -6128,7 +6128,7 @@
       <c r="Y28" s="8"/>
       <c r="Z28" s="8"/>
     </row>
-    <row r="29" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="29" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -6160,7 +6160,7 @@
       <c r="Y29" s="8"/>
       <c r="Z29" s="8"/>
     </row>
-    <row r="30" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="30" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -6190,7 +6190,7 @@
       <c r="Y30" s="8"/>
       <c r="Z30" s="8"/>
     </row>
-    <row r="31" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="31" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -6222,7 +6222,7 @@
       <c r="Y31" s="8"/>
       <c r="Z31" s="8"/>
     </row>
-    <row r="32" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="32" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -6252,7 +6252,7 @@
       <c r="Y32" s="8"/>
       <c r="Z32" s="8"/>
     </row>
-    <row r="33" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="33" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -6284,7 +6284,7 @@
       <c r="Y33" s="8"/>
       <c r="Z33" s="8"/>
     </row>
-    <row r="34" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="34" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -6314,7 +6314,7 @@
       <c r="Y34" s="8"/>
       <c r="Z34" s="8"/>
     </row>
-    <row r="35" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="35" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -6346,7 +6346,7 @@
       <c r="Y35" s="8"/>
       <c r="Z35" s="8"/>
     </row>
-    <row r="36" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="36" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -6376,7 +6376,7 @@
       <c r="Y36" s="8"/>
       <c r="Z36" s="8"/>
     </row>
-    <row r="37" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="37" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -6408,7 +6408,7 @@
       <c r="Y37" s="8"/>
       <c r="Z37" s="8"/>
     </row>
-    <row r="38" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="38" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -6438,7 +6438,7 @@
       <c r="Y38" s="8"/>
       <c r="Z38" s="8"/>
     </row>
-    <row r="39" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="39" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -6470,7 +6470,7 @@
       <c r="Y39" s="8"/>
       <c r="Z39" s="8"/>
     </row>
-    <row r="40" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="40" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -6500,7 +6500,7 @@
       <c r="Y40" s="8"/>
       <c r="Z40" s="8"/>
     </row>
-    <row r="41" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="41" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -6530,7 +6530,7 @@
       <c r="Y41" s="8"/>
       <c r="Z41" s="8"/>
     </row>
-    <row r="42" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="42" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -6562,7 +6562,7 @@
       <c r="Y42" s="8"/>
       <c r="Z42" s="8"/>
     </row>
-    <row r="43" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="43" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -6592,7 +6592,7 @@
       <c r="Y43" s="8"/>
       <c r="Z43" s="8"/>
     </row>
-    <row r="44" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="44" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -6622,7 +6622,7 @@
       <c r="Y44" s="8"/>
       <c r="Z44" s="8"/>
     </row>
-    <row r="45" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="45" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -6654,7 +6654,7 @@
       <c r="Y45" s="8"/>
       <c r="Z45" s="8"/>
     </row>
-    <row r="46" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="46" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -6684,7 +6684,7 @@
       <c r="Y46" s="8"/>
       <c r="Z46" s="8"/>
     </row>
-    <row r="47" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="47" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -6714,7 +6714,7 @@
       <c r="Y47" s="8"/>
       <c r="Z47" s="8"/>
     </row>
-    <row r="48" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="48" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -6746,7 +6746,7 @@
       <c r="Y48" s="8"/>
       <c r="Z48" s="8"/>
     </row>
-    <row r="49" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="49" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -6776,7 +6776,7 @@
       <c r="Y49" s="8"/>
       <c r="Z49" s="8"/>
     </row>
-    <row r="50" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="50" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -6808,7 +6808,7 @@
       <c r="Y50" s="8"/>
       <c r="Z50" s="8"/>
     </row>
-    <row r="51" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="51" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -6838,7 +6838,7 @@
       <c r="Y51" s="8"/>
       <c r="Z51" s="8"/>
     </row>
-    <row r="52" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="52" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -6870,7 +6870,7 @@
       <c r="Y52" s="8"/>
       <c r="Z52" s="8"/>
     </row>
-    <row r="53" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="53" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -6900,7 +6900,7 @@
       <c r="Y53" s="8"/>
       <c r="Z53" s="8"/>
     </row>
-    <row r="54" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="54" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -6932,7 +6932,7 @@
       <c r="Y54" s="8"/>
       <c r="Z54" s="8"/>
     </row>
-    <row r="55" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="55" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -6962,7 +6962,7 @@
       <c r="Y55" s="8"/>
       <c r="Z55" s="8"/>
     </row>
-    <row r="56" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="56" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -6994,7 +6994,7 @@
       <c r="Y56" s="8"/>
       <c r="Z56" s="8"/>
     </row>
-    <row r="57" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="57" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -7024,7 +7024,7 @@
       <c r="Y57" s="8"/>
       <c r="Z57" s="8"/>
     </row>
-    <row r="58" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="58" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -7054,7 +7054,7 @@
       <c r="Y58" s="8"/>
       <c r="Z58" s="8"/>
     </row>
-    <row r="59" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="59" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -7086,7 +7086,7 @@
       <c r="Y59" s="8"/>
       <c r="Z59" s="8"/>
     </row>
-    <row r="60" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="60" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -7116,7 +7116,7 @@
       <c r="Y60" s="8"/>
       <c r="Z60" s="8"/>
     </row>
-    <row r="61" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="61" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -7148,7 +7148,7 @@
       <c r="Y61" s="8"/>
       <c r="Z61" s="8"/>
     </row>
-    <row r="62" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="62" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -7178,7 +7178,7 @@
       <c r="Y62" s="8"/>
       <c r="Z62" s="8"/>
     </row>
-    <row r="63" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="63" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -7210,7 +7210,7 @@
       <c r="Y63" s="8"/>
       <c r="Z63" s="8"/>
     </row>
-    <row r="64" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="64" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -7240,7 +7240,7 @@
       <c r="Y64" s="8"/>
       <c r="Z64" s="8"/>
     </row>
-    <row r="65" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="65" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -7272,7 +7272,7 @@
       <c r="Y65" s="8"/>
       <c r="Z65" s="8"/>
     </row>
-    <row r="66" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="66" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -7302,7 +7302,7 @@
       <c r="Y66" s="8"/>
       <c r="Z66" s="8"/>
     </row>
-    <row r="67" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="67" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -7334,7 +7334,7 @@
       <c r="Y67" s="8"/>
       <c r="Z67" s="8"/>
     </row>
-    <row r="68" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="68" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -7364,7 +7364,7 @@
       <c r="Y68" s="8"/>
       <c r="Z68" s="8"/>
     </row>
-    <row r="69" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="69" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -7396,7 +7396,7 @@
       <c r="Y69" s="8"/>
       <c r="Z69" s="8"/>
     </row>
-    <row r="70" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="70" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -7426,7 +7426,7 @@
       <c r="Y70" s="8"/>
       <c r="Z70" s="8"/>
     </row>
-    <row r="71" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="71" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -7458,7 +7458,7 @@
       <c r="Y71" s="8"/>
       <c r="Z71" s="8"/>
     </row>
-    <row r="72" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="72" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -7488,7 +7488,7 @@
       <c r="Y72" s="8"/>
       <c r="Z72" s="8"/>
     </row>
-    <row r="73" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="73" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -7520,7 +7520,7 @@
       <c r="Y73" s="8"/>
       <c r="Z73" s="8"/>
     </row>
-    <row r="74" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="74" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -11634,7 +11634,7 @@
       <c r="Y205" s="8"/>
       <c r="Z205" s="8"/>
     </row>
-    <row r="206" spans="1:26" ht="23.25" customHeight="1">
+    <row r="206" spans="1:26" ht="23.25" customHeight="1" collapsed="1">
       <c r="A206" s="4" t="s">
         <v>287</v>
       </c>
@@ -11666,7 +11666,7 @@
       <c r="Y206" s="5"/>
       <c r="Z206" s="5"/>
     </row>
-    <row r="207" spans="1:26" ht="23.25" customHeight="1" outlineLevel="1" collapsed="1">
+    <row r="207" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="1" collapsed="1">
       <c r="A207" s="5"/>
       <c r="B207" s="4" t="s">
         <v>289</v>
@@ -12230,7 +12230,7 @@
       <c r="Y224" s="8"/>
       <c r="Z224" s="8"/>
     </row>
-    <row r="225" spans="1:26" ht="23.25" customHeight="1" outlineLevel="1" collapsed="1">
+    <row r="225" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="1" collapsed="1">
       <c r="A225" s="5"/>
       <c r="B225" s="4" t="s">
         <v>15</v>
@@ -14302,7 +14302,7 @@
       <c r="Y290" s="8"/>
       <c r="Z290" s="8"/>
     </row>
-    <row r="291" spans="1:26" ht="23.25" customHeight="1" outlineLevel="1">
+    <row r="291" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A291" s="5"/>
       <c r="B291" s="4" t="s">
         <v>110</v>
@@ -14334,7 +14334,7 @@
       <c r="Y291" s="5"/>
       <c r="Z291" s="5"/>
     </row>
-    <row r="292" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="292" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A292" s="8"/>
       <c r="B292" s="8"/>
       <c r="C292" s="9" t="s">
@@ -14366,7 +14366,7 @@
       <c r="Y292" s="8"/>
       <c r="Z292" s="8"/>
     </row>
-    <row r="293" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="293" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A293" s="8"/>
       <c r="B293" s="8"/>
       <c r="C293" s="8"/>
@@ -14396,7 +14396,7 @@
       <c r="Y293" s="8"/>
       <c r="Z293" s="8"/>
     </row>
-    <row r="294" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="294" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A294" s="8"/>
       <c r="B294" s="8"/>
       <c r="C294" s="8"/>
@@ -14426,7 +14426,7 @@
       <c r="Y294" s="8"/>
       <c r="Z294" s="8"/>
     </row>
-    <row r="295" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="295" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A295" s="8"/>
       <c r="B295" s="8"/>
       <c r="C295" s="8"/>
@@ -14456,7 +14456,7 @@
       <c r="Y295" s="8"/>
       <c r="Z295" s="8"/>
     </row>
-    <row r="296" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="296" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A296" s="8"/>
       <c r="B296" s="8"/>
       <c r="C296" s="8"/>
@@ -14486,7 +14486,7 @@
       <c r="Y296" s="8"/>
       <c r="Z296" s="8"/>
     </row>
-    <row r="297" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="297" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A297" s="8"/>
       <c r="B297" s="8"/>
       <c r="C297" s="9" t="s">
@@ -14518,7 +14518,7 @@
       <c r="Y297" s="8"/>
       <c r="Z297" s="8"/>
     </row>
-    <row r="298" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="298" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A298" s="8"/>
       <c r="B298" s="8"/>
       <c r="C298" s="8"/>
@@ -14548,7 +14548,7 @@
       <c r="Y298" s="8"/>
       <c r="Z298" s="8"/>
     </row>
-    <row r="299" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="299" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A299" s="8"/>
       <c r="B299" s="8"/>
       <c r="C299" s="8"/>
@@ -14580,7 +14580,7 @@
       <c r="Y299" s="8"/>
       <c r="Z299" s="8"/>
     </row>
-    <row r="300" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="300" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A300" s="8"/>
       <c r="B300" s="8"/>
       <c r="C300" s="8"/>
@@ -14612,7 +14612,7 @@
       <c r="Y300" s="8"/>
       <c r="Z300" s="8"/>
     </row>
-    <row r="301" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="301" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A301" s="8"/>
       <c r="B301" s="8"/>
       <c r="C301" s="8"/>
@@ -14644,7 +14644,7 @@
       <c r="Y301" s="8"/>
       <c r="Z301" s="8"/>
     </row>
-    <row r="302" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="302" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A302" s="8"/>
       <c r="B302" s="8"/>
       <c r="C302" s="8"/>
@@ -14676,7 +14676,7 @@
       <c r="Y302" s="8"/>
       <c r="Z302" s="8"/>
     </row>
-    <row r="303" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="303" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A303" s="8"/>
       <c r="B303" s="8"/>
       <c r="C303" s="8"/>
@@ -14708,7 +14708,7 @@
       <c r="Y303" s="8"/>
       <c r="Z303" s="8"/>
     </row>
-    <row r="304" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="304" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A304" s="8"/>
       <c r="B304" s="8"/>
       <c r="C304" s="8"/>
@@ -14740,7 +14740,7 @@
       <c r="Y304" s="8"/>
       <c r="Z304" s="8"/>
     </row>
-    <row r="305" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="305" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A305" s="8"/>
       <c r="B305" s="8"/>
       <c r="C305" s="8"/>
@@ -14772,7 +14772,7 @@
       <c r="Y305" s="8"/>
       <c r="Z305" s="8"/>
     </row>
-    <row r="306" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="306" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A306" s="8"/>
       <c r="B306" s="8"/>
       <c r="C306" s="9" t="s">
@@ -14804,7 +14804,7 @@
       <c r="Y306" s="8"/>
       <c r="Z306" s="8"/>
     </row>
-    <row r="307" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="307" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A307" s="8"/>
       <c r="B307" s="8"/>
       <c r="C307" s="8"/>
@@ -14834,7 +14834,7 @@
       <c r="Y307" s="8"/>
       <c r="Z307" s="8"/>
     </row>
-    <row r="308" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="308" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A308" s="8"/>
       <c r="B308" s="8"/>
       <c r="C308" s="8"/>
@@ -14866,7 +14866,7 @@
       <c r="Y308" s="8"/>
       <c r="Z308" s="8"/>
     </row>
-    <row r="309" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="309" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A309" s="8"/>
       <c r="B309" s="8"/>
       <c r="C309" s="8"/>
@@ -14898,7 +14898,7 @@
       <c r="Y309" s="8"/>
       <c r="Z309" s="8"/>
     </row>
-    <row r="310" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="310" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A310" s="8"/>
       <c r="B310" s="8"/>
       <c r="C310" s="8"/>
@@ -14930,7 +14930,7 @@
       <c r="Y310" s="8"/>
       <c r="Z310" s="8"/>
     </row>
-    <row r="311" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="311" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A311" s="8"/>
       <c r="B311" s="8"/>
       <c r="C311" s="8"/>
@@ -14962,7 +14962,7 @@
       <c r="Y311" s="8"/>
       <c r="Z311" s="8"/>
     </row>
-    <row r="312" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="312" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A312" s="8"/>
       <c r="B312" s="8"/>
       <c r="C312" s="8"/>
@@ -14992,7 +14992,7 @@
       <c r="Y312" s="8"/>
       <c r="Z312" s="8"/>
     </row>
-    <row r="313" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="313" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A313" s="8"/>
       <c r="B313" s="8"/>
       <c r="C313" s="8"/>
@@ -15022,7 +15022,7 @@
       <c r="Y313" s="8"/>
       <c r="Z313" s="8"/>
     </row>
-    <row r="314" spans="1:26" ht="23.25" customHeight="1" outlineLevel="1">
+    <row r="314" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A314" s="5"/>
       <c r="B314" s="4" t="s">
         <v>162</v>
@@ -15054,7 +15054,7 @@
       <c r="Y314" s="5"/>
       <c r="Z314" s="5"/>
     </row>
-    <row r="315" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="315" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A315" s="8"/>
       <c r="B315" s="8"/>
       <c r="C315" s="9" t="s">
@@ -15086,7 +15086,7 @@
       <c r="Y315" s="8"/>
       <c r="Z315" s="8"/>
     </row>
-    <row r="316" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="316" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A316" s="8"/>
       <c r="B316" s="8"/>
       <c r="C316" s="8"/>
@@ -15116,7 +15116,7 @@
       <c r="Y316" s="8"/>
       <c r="Z316" s="8"/>
     </row>
-    <row r="317" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="317" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A317" s="8"/>
       <c r="B317" s="8"/>
       <c r="C317" s="8"/>
@@ -15146,7 +15146,7 @@
       <c r="Y317" s="8"/>
       <c r="Z317" s="8"/>
     </row>
-    <row r="318" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="318" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A318" s="8"/>
       <c r="B318" s="8"/>
       <c r="C318" s="8"/>
@@ -15176,7 +15176,7 @@
       <c r="Y318" s="8"/>
       <c r="Z318" s="8"/>
     </row>
-    <row r="319" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="319" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A319" s="8"/>
       <c r="B319" s="8"/>
       <c r="C319" s="8"/>
@@ -15206,7 +15206,7 @@
       <c r="Y319" s="8"/>
       <c r="Z319" s="8"/>
     </row>
-    <row r="320" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="320" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A320" s="8"/>
       <c r="B320" s="8"/>
       <c r="C320" s="8"/>
@@ -15236,7 +15236,7 @@
       <c r="Y320" s="8"/>
       <c r="Z320" s="8"/>
     </row>
-    <row r="321" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="321" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A321" s="11"/>
       <c r="D321" s="5" t="s">
         <v>1594</v>
@@ -15266,7 +15266,7 @@
       <c r="Y321" s="11"/>
       <c r="Z321" s="11"/>
     </row>
-    <row r="322" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="322" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A322" s="8"/>
       <c r="B322" s="8"/>
       <c r="C322" s="9"/>
@@ -15294,7 +15294,7 @@
       <c r="Y322" s="8"/>
       <c r="Z322" s="8"/>
     </row>
-    <row r="323" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="323" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A323" s="8"/>
       <c r="B323" s="8"/>
       <c r="D323" s="10" t="s">
@@ -15323,7 +15323,7 @@
       <c r="Y323" s="8"/>
       <c r="Z323" s="8"/>
     </row>
-    <row r="324" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="324" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A324" s="8"/>
       <c r="B324" s="8"/>
       <c r="D324" s="10" t="s">
@@ -15352,7 +15352,7 @@
       <c r="Y324" s="8"/>
       <c r="Z324" s="8"/>
     </row>
-    <row r="325" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="325" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A325" s="8"/>
       <c r="B325" s="8"/>
       <c r="D325" s="10" t="s">
@@ -15381,7 +15381,7 @@
       <c r="Y325" s="8"/>
       <c r="Z325" s="8"/>
     </row>
-    <row r="326" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="326" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A326" s="8"/>
       <c r="B326" s="8"/>
       <c r="D326" s="10" t="s">
@@ -15410,7 +15410,7 @@
       <c r="Y326" s="8"/>
       <c r="Z326" s="8"/>
     </row>
-    <row r="327" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="327" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A327" s="8"/>
       <c r="B327" s="8"/>
       <c r="D327" s="9" t="s">
@@ -15439,7 +15439,7 @@
       <c r="Y327" s="8"/>
       <c r="Z327" s="8"/>
     </row>
-    <row r="328" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="328" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A328" s="8"/>
       <c r="B328" s="8"/>
       <c r="D328" s="10" t="s">
@@ -15468,7 +15468,7 @@
       <c r="Y328" s="8"/>
       <c r="Z328" s="8"/>
     </row>
-    <row r="329" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="329" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A329" s="8"/>
       <c r="B329" s="8"/>
       <c r="D329" s="10" t="s">
@@ -15499,7 +15499,7 @@
       <c r="Y329" s="8"/>
       <c r="Z329" s="8"/>
     </row>
-    <row r="330" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="330" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A330" s="8"/>
       <c r="B330" s="8"/>
       <c r="D330" s="10" t="s">
@@ -15530,7 +15530,7 @@
       <c r="Y330" s="8"/>
       <c r="Z330" s="8"/>
     </row>
-    <row r="331" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="331" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A331" s="8"/>
       <c r="B331" s="8"/>
       <c r="D331" s="10" t="s">
@@ -15561,7 +15561,7 @@
       <c r="Y331" s="8"/>
       <c r="Z331" s="8"/>
     </row>
-    <row r="332" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="332" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A332" s="8"/>
       <c r="B332" s="8"/>
       <c r="D332" s="10" t="s">
@@ -15592,7 +15592,7 @@
       <c r="Y332" s="8"/>
       <c r="Z332" s="8"/>
     </row>
-    <row r="333" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="333" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A333" s="8"/>
       <c r="B333" s="8"/>
       <c r="D333" s="10" t="s">
@@ -15623,7 +15623,7 @@
       <c r="Y333" s="8"/>
       <c r="Z333" s="8"/>
     </row>
-    <row r="334" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="334" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A334" s="8"/>
       <c r="B334" s="8"/>
       <c r="D334" s="10" t="s">
@@ -15654,7 +15654,7 @@
       <c r="Y334" s="8"/>
       <c r="Z334" s="8"/>
     </row>
-    <row r="335" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="335" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A335" s="8"/>
       <c r="B335" s="8"/>
       <c r="D335" s="10" t="s">
@@ -15685,7 +15685,7 @@
       <c r="Y335" s="8"/>
       <c r="Z335" s="8"/>
     </row>
-    <row r="336" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="336" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A336" s="8"/>
       <c r="B336" s="8"/>
       <c r="C336" s="9"/>
@@ -15715,7 +15715,7 @@
       <c r="Y336" s="8"/>
       <c r="Z336" s="8"/>
     </row>
-    <row r="337" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="337" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A337" s="8"/>
       <c r="B337" s="8"/>
       <c r="D337" s="10" t="s">
@@ -15744,7 +15744,7 @@
       <c r="Y337" s="8"/>
       <c r="Z337" s="8"/>
     </row>
-    <row r="338" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="338" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A338" s="8"/>
       <c r="B338" s="8"/>
       <c r="D338" s="10" t="s">
@@ -15775,7 +15775,7 @@
       <c r="Y338" s="8"/>
       <c r="Z338" s="8"/>
     </row>
-    <row r="339" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="339" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A339" s="8"/>
       <c r="B339" s="8"/>
       <c r="D339" s="10" t="s">
@@ -15806,7 +15806,7 @@
       <c r="Y339" s="8"/>
       <c r="Z339" s="8"/>
     </row>
-    <row r="340" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="340" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A340" s="8"/>
       <c r="B340" s="8"/>
       <c r="D340" s="10"/>
@@ -15835,7 +15835,7 @@
       <c r="Y340" s="8"/>
       <c r="Z340" s="8"/>
     </row>
-    <row r="341" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="341" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A341" s="8"/>
       <c r="B341" s="8"/>
       <c r="D341" s="10" t="s">
@@ -15866,7 +15866,7 @@
       <c r="Y341" s="8"/>
       <c r="Z341" s="8"/>
     </row>
-    <row r="342" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="342" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A342" s="8"/>
       <c r="B342" s="8"/>
       <c r="D342" s="10" t="s">
@@ -15897,7 +15897,7 @@
       <c r="Y342" s="8"/>
       <c r="Z342" s="8"/>
     </row>
-    <row r="343" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="343" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A343" s="11"/>
       <c r="D343" s="5" t="s">
         <v>443</v>
@@ -15927,7 +15927,7 @@
       <c r="Y343" s="11"/>
       <c r="Z343" s="11"/>
     </row>
-    <row r="344" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="344" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A344" s="8"/>
       <c r="B344" s="8"/>
       <c r="D344" s="9" t="s">
@@ -15956,7 +15956,7 @@
       <c r="Y344" s="8"/>
       <c r="Z344" s="8"/>
     </row>
-    <row r="345" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="345" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A345" s="8"/>
       <c r="B345" s="8"/>
       <c r="D345" s="10" t="s">
@@ -15985,7 +15985,7 @@
       <c r="Y345" s="8"/>
       <c r="Z345" s="8"/>
     </row>
-    <row r="346" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="346" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A346" s="8"/>
       <c r="B346" s="8"/>
       <c r="D346" s="10" t="s">
@@ -16014,7 +16014,7 @@
       <c r="Y346" s="8"/>
       <c r="Z346" s="8"/>
     </row>
-    <row r="347" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="347" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A347" s="8"/>
       <c r="B347" s="8"/>
       <c r="D347" s="9" t="s">
@@ -16043,7 +16043,7 @@
       <c r="Y347" s="8"/>
       <c r="Z347" s="8"/>
     </row>
-    <row r="348" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="348" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A348" s="8"/>
       <c r="B348" s="8"/>
       <c r="D348" s="10" t="s">
@@ -16072,7 +16072,7 @@
       <c r="Y348" s="8"/>
       <c r="Z348" s="8"/>
     </row>
-    <row r="349" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="349" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A349" s="8"/>
       <c r="B349" s="8"/>
       <c r="D349" s="9" t="s">
@@ -16101,7 +16101,7 @@
       <c r="Y349" s="8"/>
       <c r="Z349" s="8"/>
     </row>
-    <row r="350" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="350" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A350" s="8"/>
       <c r="B350" s="8"/>
       <c r="D350" s="10" t="s">
@@ -16130,7 +16130,7 @@
       <c r="Y350" s="8"/>
       <c r="Z350" s="8"/>
     </row>
-    <row r="351" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="351" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A351" s="8"/>
       <c r="B351" s="8"/>
       <c r="D351" s="9" t="s">
@@ -16159,7 +16159,7 @@
       <c r="Y351" s="8"/>
       <c r="Z351" s="8"/>
     </row>
-    <row r="352" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="352" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A352" s="8"/>
       <c r="B352" s="8"/>
       <c r="D352" s="10" t="s">
@@ -16188,7 +16188,7 @@
       <c r="Y352" s="8"/>
       <c r="Z352" s="8"/>
     </row>
-    <row r="353" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="353" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A353" s="8"/>
       <c r="B353" s="8"/>
       <c r="D353" s="9" t="s">
@@ -16217,7 +16217,7 @@
       <c r="Y353" s="8"/>
       <c r="Z353" s="8"/>
     </row>
-    <row r="354" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="354" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A354" s="8"/>
       <c r="B354" s="8"/>
       <c r="D354" s="10" t="s">
@@ -16246,7 +16246,7 @@
       <c r="Y354" s="8"/>
       <c r="Z354" s="8"/>
     </row>
-    <row r="355" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="355" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A355" s="8"/>
       <c r="B355" s="8"/>
       <c r="D355" s="10" t="s">
@@ -16275,7 +16275,7 @@
       <c r="Y355" s="8"/>
       <c r="Z355" s="8"/>
     </row>
-    <row r="356" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="356" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A356" s="8"/>
       <c r="B356" s="8"/>
       <c r="D356" s="9" t="s">
@@ -16304,7 +16304,7 @@
       <c r="Y356" s="8"/>
       <c r="Z356" s="8"/>
     </row>
-    <row r="357" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="357" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A357" s="8"/>
       <c r="B357" s="8"/>
       <c r="D357" s="10" t="s">
@@ -16333,7 +16333,7 @@
       <c r="Y357" s="8"/>
       <c r="Z357" s="8"/>
     </row>
-    <row r="358" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="358" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A358" s="8"/>
       <c r="B358" s="8"/>
       <c r="D358" s="9" t="s">
@@ -16362,7 +16362,7 @@
       <c r="Y358" s="8"/>
       <c r="Z358" s="8"/>
     </row>
-    <row r="359" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="359" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A359" s="8"/>
       <c r="B359" s="8"/>
       <c r="D359" s="10" t="s">
@@ -16391,7 +16391,7 @@
       <c r="Y359" s="8"/>
       <c r="Z359" s="8"/>
     </row>
-    <row r="360" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="360" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A360" s="8"/>
       <c r="B360" s="8"/>
       <c r="D360" s="9" t="s">
@@ -16420,7 +16420,7 @@
       <c r="Y360" s="8"/>
       <c r="Z360" s="8"/>
     </row>
-    <row r="361" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="361" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A361" s="8"/>
       <c r="B361" s="8"/>
       <c r="D361" s="10" t="s">
@@ -16449,7 +16449,7 @@
       <c r="Y361" s="8"/>
       <c r="Z361" s="8"/>
     </row>
-    <row r="362" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="362" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A362" s="11"/>
       <c r="D362" s="5" t="s">
         <v>1595</v>
@@ -16479,7 +16479,7 @@
       <c r="Y362" s="11"/>
       <c r="Z362" s="11"/>
     </row>
-    <row r="363" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="363" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A363" s="8"/>
       <c r="B363" s="8"/>
       <c r="C363" s="9" t="s">
@@ -16511,7 +16511,7 @@
       <c r="Y363" s="8"/>
       <c r="Z363" s="8"/>
     </row>
-    <row r="364" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="364" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A364" s="8"/>
       <c r="B364" s="8"/>
       <c r="C364" s="8"/>
@@ -16541,7 +16541,7 @@
       <c r="Y364" s="8"/>
       <c r="Z364" s="8"/>
     </row>
-    <row r="365" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="365" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A365" s="8"/>
       <c r="B365" s="8"/>
       <c r="C365" s="8"/>
@@ -16573,7 +16573,7 @@
       <c r="Y365" s="8"/>
       <c r="Z365" s="8"/>
     </row>
-    <row r="366" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="366" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A366" s="8"/>
       <c r="B366" s="8"/>
       <c r="C366" s="8"/>
@@ -16605,7 +16605,7 @@
       <c r="Y366" s="8"/>
       <c r="Z366" s="8"/>
     </row>
-    <row r="367" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="367" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A367" s="8"/>
       <c r="B367" s="8"/>
       <c r="C367" s="8"/>
@@ -16637,7 +16637,7 @@
       <c r="Y367" s="8"/>
       <c r="Z367" s="8"/>
     </row>
-    <row r="368" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="368" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A368" s="8"/>
       <c r="B368" s="8"/>
       <c r="C368" s="8"/>
@@ -16667,7 +16667,7 @@
       <c r="Y368" s="8"/>
       <c r="Z368" s="8"/>
     </row>
-    <row r="369" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="369" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A369" s="8"/>
       <c r="B369" s="8"/>
       <c r="C369" s="8"/>
@@ -16699,7 +16699,7 @@
       <c r="Y369" s="8"/>
       <c r="Z369" s="8"/>
     </row>
-    <row r="370" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="370" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A370" s="8"/>
       <c r="B370" s="8"/>
       <c r="C370" s="8"/>
@@ -16731,7 +16731,7 @@
       <c r="Y370" s="8"/>
       <c r="Z370" s="8"/>
     </row>
-    <row r="371" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="371" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A371" s="8"/>
       <c r="B371" s="8"/>
       <c r="C371" s="8"/>
@@ -16763,7 +16763,7 @@
       <c r="Y371" s="8"/>
       <c r="Z371" s="8"/>
     </row>
-    <row r="372" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="372" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A372" s="8"/>
       <c r="B372" s="8"/>
       <c r="C372" s="8"/>
@@ -16795,7 +16795,7 @@
       <c r="Y372" s="8"/>
       <c r="Z372" s="8"/>
     </row>
-    <row r="373" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="373" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A373" s="8"/>
       <c r="B373" s="8"/>
       <c r="C373" s="9" t="s">
@@ -16827,7 +16827,7 @@
       <c r="Y373" s="8"/>
       <c r="Z373" s="8"/>
     </row>
-    <row r="374" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="374" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A374" s="8"/>
       <c r="B374" s="8"/>
       <c r="C374" s="8"/>
@@ -16857,7 +16857,7 @@
       <c r="Y374" s="8"/>
       <c r="Z374" s="8"/>
     </row>
-    <row r="375" spans="1:26" ht="23.25" customHeight="1" outlineLevel="1">
+    <row r="375" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A375" s="5"/>
       <c r="B375" s="4" t="s">
         <v>485</v>
@@ -16889,7 +16889,7 @@
       <c r="Y375" s="5"/>
       <c r="Z375" s="5"/>
     </row>
-    <row r="376" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="376" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A376" s="8"/>
       <c r="B376" s="8"/>
       <c r="C376" s="9" t="s">
@@ -16921,7 +16921,7 @@
       <c r="Y376" s="8"/>
       <c r="Z376" s="8"/>
     </row>
-    <row r="377" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="377" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A377" s="8"/>
       <c r="B377" s="8"/>
       <c r="C377" s="8"/>
@@ -16951,7 +16951,7 @@
       <c r="Y377" s="8"/>
       <c r="Z377" s="8"/>
     </row>
-    <row r="378" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="378" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A378" s="8"/>
       <c r="B378" s="8"/>
       <c r="C378" s="8"/>
@@ -16981,7 +16981,7 @@
       <c r="Y378" s="8"/>
       <c r="Z378" s="8"/>
     </row>
-    <row r="379" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="379" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A379" s="8"/>
       <c r="B379" s="8"/>
       <c r="C379" s="9" t="s">
@@ -17013,7 +17013,7 @@
       <c r="Y379" s="8"/>
       <c r="Z379" s="8"/>
     </row>
-    <row r="380" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="380" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A380" s="8"/>
       <c r="B380" s="8"/>
       <c r="C380" s="8"/>
@@ -17043,7 +17043,7 @@
       <c r="Y380" s="8"/>
       <c r="Z380" s="8"/>
     </row>
-    <row r="381" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="381" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A381" s="8"/>
       <c r="B381" s="8"/>
       <c r="C381" s="8"/>
@@ -17075,7 +17075,7 @@
       <c r="Y381" s="8"/>
       <c r="Z381" s="8"/>
     </row>
-    <row r="382" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="382" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A382" s="8"/>
       <c r="B382" s="8"/>
       <c r="C382" s="8"/>
@@ -17107,7 +17107,7 @@
       <c r="Y382" s="8"/>
       <c r="Z382" s="8"/>
     </row>
-    <row r="383" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="383" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A383" s="8"/>
       <c r="B383" s="8"/>
       <c r="C383" s="8"/>
@@ -17139,7 +17139,7 @@
       <c r="Y383" s="8"/>
       <c r="Z383" s="8"/>
     </row>
-    <row r="384" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="384" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A384" s="8"/>
       <c r="B384" s="8"/>
       <c r="C384" s="8"/>
@@ -17171,7 +17171,7 @@
       <c r="Y384" s="8"/>
       <c r="Z384" s="8"/>
     </row>
-    <row r="385" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="385" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A385" s="8"/>
       <c r="B385" s="8"/>
       <c r="C385" s="8"/>
@@ -17203,7 +17203,7 @@
       <c r="Y385" s="8"/>
       <c r="Z385" s="8"/>
     </row>
-    <row r="386" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="386" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A386" s="8"/>
       <c r="B386" s="8"/>
       <c r="C386" s="8"/>
@@ -17235,7 +17235,7 @@
       <c r="Y386" s="8"/>
       <c r="Z386" s="8"/>
     </row>
-    <row r="387" spans="1:26" ht="23.25" customHeight="1" outlineLevel="1">
+    <row r="387" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A387" s="5"/>
       <c r="B387" s="4" t="s">
         <v>500</v>
@@ -17267,7 +17267,7 @@
       <c r="Y387" s="5"/>
       <c r="Z387" s="5"/>
     </row>
-    <row r="388" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="388" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A388" s="8"/>
       <c r="B388" s="8"/>
       <c r="C388" s="9" t="s">
@@ -17299,7 +17299,7 @@
       <c r="Y388" s="8"/>
       <c r="Z388" s="8"/>
     </row>
-    <row r="389" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="389" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A389" s="8"/>
       <c r="B389" s="8"/>
       <c r="C389" s="8"/>
@@ -17329,7 +17329,7 @@
       <c r="Y389" s="8"/>
       <c r="Z389" s="8"/>
     </row>
-    <row r="390" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="390" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A390" s="8"/>
       <c r="B390" s="8"/>
       <c r="C390" s="8"/>
@@ -17359,7 +17359,7 @@
       <c r="Y390" s="8"/>
       <c r="Z390" s="8"/>
     </row>
-    <row r="391" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="391" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A391" s="8"/>
       <c r="B391" s="8"/>
       <c r="C391" s="8"/>
@@ -17391,7 +17391,7 @@
       <c r="Y391" s="8"/>
       <c r="Z391" s="8"/>
     </row>
-    <row r="392" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="392" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A392" s="8"/>
       <c r="B392" s="8"/>
       <c r="C392" s="8"/>
@@ -17423,7 +17423,7 @@
       <c r="Y392" s="8"/>
       <c r="Z392" s="8"/>
     </row>
-    <row r="393" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="393" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A393" s="8"/>
       <c r="B393" s="8"/>
       <c r="C393" s="8"/>
@@ -17455,7 +17455,7 @@
       <c r="Y393" s="8"/>
       <c r="Z393" s="8"/>
     </row>
-    <row r="394" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="394" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A394" s="8"/>
       <c r="B394" s="8"/>
       <c r="C394" s="8"/>
@@ -17487,7 +17487,7 @@
       <c r="Y394" s="8"/>
       <c r="Z394" s="8"/>
     </row>
-    <row r="395" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="395" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A395" s="8"/>
       <c r="B395" s="8"/>
       <c r="C395" s="8"/>
@@ -17519,7 +17519,7 @@
       <c r="Y395" s="8"/>
       <c r="Z395" s="8"/>
     </row>
-    <row r="396" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="396" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A396" s="8"/>
       <c r="B396" s="8"/>
       <c r="C396" s="8"/>
@@ -17551,7 +17551,7 @@
       <c r="Y396" s="8"/>
       <c r="Z396" s="8"/>
     </row>
-    <row r="397" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="397" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A397" s="8"/>
       <c r="B397" s="8"/>
       <c r="C397" s="8"/>
@@ -17583,7 +17583,7 @@
       <c r="Y397" s="8"/>
       <c r="Z397" s="8"/>
     </row>
-    <row r="398" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="398" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A398" s="8"/>
       <c r="B398" s="8"/>
       <c r="C398" s="8"/>
@@ -17613,7 +17613,7 @@
       <c r="Y398" s="8"/>
       <c r="Z398" s="8"/>
     </row>
-    <row r="399" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="399" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A399" s="8"/>
       <c r="B399" s="8"/>
       <c r="C399" s="9" t="s">
@@ -17645,7 +17645,7 @@
       <c r="Y399" s="8"/>
       <c r="Z399" s="8"/>
     </row>
-    <row r="400" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="400" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A400" s="8"/>
       <c r="B400" s="8"/>
       <c r="C400" s="8"/>
@@ -17675,7 +17675,7 @@
       <c r="Y400" s="8"/>
       <c r="Z400" s="8"/>
     </row>
-    <row r="401" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="401" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A401" s="8"/>
       <c r="B401" s="8"/>
       <c r="C401" s="8"/>
@@ -17707,7 +17707,7 @@
       <c r="Y401" s="8"/>
       <c r="Z401" s="8"/>
     </row>
-    <row r="402" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="402" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A402" s="8"/>
       <c r="B402" s="8"/>
       <c r="C402" s="8"/>
@@ -17739,7 +17739,7 @@
       <c r="Y402" s="8"/>
       <c r="Z402" s="8"/>
     </row>
-    <row r="403" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="403" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A403" s="8"/>
       <c r="B403" s="8"/>
       <c r="C403" s="8"/>
@@ -17771,7 +17771,7 @@
       <c r="Y403" s="8"/>
       <c r="Z403" s="8"/>
     </row>
-    <row r="404" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="404" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A404" s="8"/>
       <c r="B404" s="8"/>
       <c r="C404" s="8"/>
@@ -17803,7 +17803,7 @@
       <c r="Y404" s="8"/>
       <c r="Z404" s="8"/>
     </row>
-    <row r="405" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="405" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A405" s="8"/>
       <c r="B405" s="8"/>
       <c r="C405" s="8"/>
@@ -17835,7 +17835,7 @@
       <c r="Y405" s="8"/>
       <c r="Z405" s="8"/>
     </row>
-    <row r="406" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="406" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A406" s="8"/>
       <c r="B406" s="8"/>
       <c r="C406" s="8"/>
@@ -17867,7 +17867,7 @@
       <c r="Y406" s="8"/>
       <c r="Z406" s="8"/>
     </row>
-    <row r="407" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="407" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A407" s="8"/>
       <c r="B407" s="8"/>
       <c r="C407" s="8"/>
@@ -17899,7 +17899,7 @@
       <c r="Y407" s="8"/>
       <c r="Z407" s="8"/>
     </row>
-    <row r="408" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="408" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A408" s="8"/>
       <c r="B408" s="8"/>
       <c r="C408" s="9" t="s">
@@ -17931,7 +17931,7 @@
       <c r="Y408" s="8"/>
       <c r="Z408" s="8"/>
     </row>
-    <row r="409" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="409" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A409" s="8"/>
       <c r="B409" s="8"/>
       <c r="C409" s="8"/>
@@ -17961,7 +17961,7 @@
       <c r="Y409" s="8"/>
       <c r="Z409" s="8"/>
     </row>
-    <row r="410" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="410" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A410" s="8"/>
       <c r="B410" s="8"/>
       <c r="C410" s="8"/>
@@ -17993,7 +17993,7 @@
       <c r="Y410" s="8"/>
       <c r="Z410" s="8"/>
     </row>
-    <row r="411" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="411" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A411" s="8"/>
       <c r="B411" s="8"/>
       <c r="C411" s="8"/>
@@ -18025,7 +18025,7 @@
       <c r="Y411" s="8"/>
       <c r="Z411" s="8"/>
     </row>
-    <row r="412" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="412" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A412" s="8"/>
       <c r="B412" s="8"/>
       <c r="C412" s="8"/>
@@ -18057,7 +18057,7 @@
       <c r="Y412" s="8"/>
       <c r="Z412" s="8"/>
     </row>
-    <row r="413" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="413" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A413" s="8"/>
       <c r="B413" s="8"/>
       <c r="C413" s="8"/>
@@ -18089,7 +18089,7 @@
       <c r="Y413" s="8"/>
       <c r="Z413" s="8"/>
     </row>
-    <row r="414" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="414" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A414" s="8"/>
       <c r="B414" s="8"/>
       <c r="C414" s="8"/>
@@ -18121,7 +18121,7 @@
       <c r="Y414" s="8"/>
       <c r="Z414" s="8"/>
     </row>
-    <row r="415" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="415" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A415" s="8"/>
       <c r="B415" s="8"/>
       <c r="C415" s="8"/>
@@ -18153,7 +18153,7 @@
       <c r="Y415" s="8"/>
       <c r="Z415" s="8"/>
     </row>
-    <row r="416" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="416" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A416" s="8"/>
       <c r="B416" s="8"/>
       <c r="C416" s="9" t="s">
@@ -18185,7 +18185,7 @@
       <c r="Y416" s="8"/>
       <c r="Z416" s="8"/>
     </row>
-    <row r="417" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="417" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A417" s="8"/>
       <c r="B417" s="8"/>
       <c r="C417" s="8"/>
@@ -18215,7 +18215,7 @@
       <c r="Y417" s="8"/>
       <c r="Z417" s="8"/>
     </row>
-    <row r="418" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="418" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A418" s="8"/>
       <c r="B418" s="8"/>
       <c r="C418" s="8"/>
@@ -18247,7 +18247,7 @@
       <c r="Y418" s="8"/>
       <c r="Z418" s="8"/>
     </row>
-    <row r="419" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="419" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A419" s="8"/>
       <c r="B419" s="8"/>
       <c r="C419" s="8"/>
@@ -18279,7 +18279,7 @@
       <c r="Y419" s="8"/>
       <c r="Z419" s="8"/>
     </row>
-    <row r="420" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="420" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A420" s="8"/>
       <c r="B420" s="8"/>
       <c r="C420" s="8"/>
@@ -18311,7 +18311,7 @@
       <c r="Y420" s="8"/>
       <c r="Z420" s="8"/>
     </row>
-    <row r="421" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="421" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A421" s="8"/>
       <c r="B421" s="8"/>
       <c r="C421" s="8"/>
@@ -18343,7 +18343,7 @@
       <c r="Y421" s="8"/>
       <c r="Z421" s="8"/>
     </row>
-    <row r="422" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="422" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A422" s="8"/>
       <c r="B422" s="8"/>
       <c r="C422" s="8"/>
@@ -18375,7 +18375,7 @@
       <c r="Y422" s="8"/>
       <c r="Z422" s="8"/>
     </row>
-    <row r="423" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="423" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A423" s="8"/>
       <c r="B423" s="8"/>
       <c r="C423" s="8"/>
@@ -18407,7 +18407,7 @@
       <c r="Y423" s="8"/>
       <c r="Z423" s="8"/>
     </row>
-    <row r="424" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="424" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A424" s="8"/>
       <c r="B424" s="8"/>
       <c r="C424" s="8"/>
@@ -18439,7 +18439,7 @@
       <c r="Y424" s="8"/>
       <c r="Z424" s="8"/>
     </row>
-    <row r="425" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="425" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A425" s="8"/>
       <c r="B425" s="8"/>
       <c r="C425" s="8"/>
@@ -18471,7 +18471,7 @@
       <c r="Y425" s="8"/>
       <c r="Z425" s="8"/>
     </row>
-    <row r="426" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="426" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A426" s="8"/>
       <c r="B426" s="8"/>
       <c r="C426" s="8"/>
@@ -18503,7 +18503,7 @@
       <c r="Y426" s="8"/>
       <c r="Z426" s="8"/>
     </row>
-    <row r="427" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="427" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A427" s="8"/>
       <c r="B427" s="8"/>
       <c r="C427" s="8"/>
@@ -18535,7 +18535,7 @@
       <c r="Y427" s="8"/>
       <c r="Z427" s="8"/>
     </row>
-    <row r="428" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="428" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A428" s="8"/>
       <c r="B428" s="8"/>
       <c r="C428" s="8"/>
@@ -18567,7 +18567,7 @@
       <c r="Y428" s="8"/>
       <c r="Z428" s="8"/>
     </row>
-    <row r="429" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="429" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A429" s="8"/>
       <c r="B429" s="8"/>
       <c r="C429" s="8"/>
@@ -18599,7 +18599,7 @@
       <c r="Y429" s="8"/>
       <c r="Z429" s="8"/>
     </row>
-    <row r="430" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="430" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A430" s="8"/>
       <c r="B430" s="8"/>
       <c r="C430" s="8"/>
@@ -18631,7 +18631,7 @@
       <c r="Y430" s="8"/>
       <c r="Z430" s="8"/>
     </row>
-    <row r="431" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="431" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A431" s="8"/>
       <c r="B431" s="8"/>
       <c r="C431" s="8"/>
@@ -18661,7 +18661,7 @@
       <c r="Y431" s="8"/>
       <c r="Z431" s="8"/>
     </row>
-    <row r="432" spans="1:26" ht="23.25" customHeight="1" outlineLevel="4">
+    <row r="432" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="4">
       <c r="A432" s="8"/>
       <c r="B432" s="8"/>
       <c r="C432" s="8"/>
@@ -18690,7 +18690,7 @@
       <c r="Y432" s="8"/>
       <c r="Z432" s="8"/>
     </row>
-    <row r="433" spans="1:26" ht="23.25" customHeight="1" outlineLevel="4">
+    <row r="433" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="4">
       <c r="A433" s="8"/>
       <c r="B433" s="8"/>
       <c r="C433" s="8"/>
@@ -18718,7 +18718,7 @@
       <c r="Y433" s="8"/>
       <c r="Z433" s="8"/>
     </row>
-    <row r="434" spans="1:26" ht="23.25" customHeight="1" outlineLevel="4">
+    <row r="434" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="4">
       <c r="A434" s="8"/>
       <c r="B434" s="8"/>
       <c r="C434" s="8"/>
@@ -18747,7 +18747,7 @@
       <c r="Y434" s="8"/>
       <c r="Z434" s="8"/>
     </row>
-    <row r="435" spans="1:26" ht="23.25" customHeight="1" outlineLevel="4">
+    <row r="435" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="4">
       <c r="A435" s="8"/>
       <c r="B435" s="8"/>
       <c r="C435" s="8"/>
@@ -18775,7 +18775,7 @@
       <c r="Y435" s="8"/>
       <c r="Z435" s="8"/>
     </row>
-    <row r="436" spans="1:26" ht="23.25" customHeight="1" outlineLevel="4">
+    <row r="436" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="4">
       <c r="A436" s="8"/>
       <c r="B436" s="8"/>
       <c r="C436" s="8"/>
@@ -18804,7 +18804,7 @@
       <c r="Y436" s="8"/>
       <c r="Z436" s="8"/>
     </row>
-    <row r="437" spans="1:26" ht="23.25" customHeight="1" outlineLevel="4">
+    <row r="437" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="4">
       <c r="A437" s="8"/>
       <c r="B437" s="8"/>
       <c r="C437" s="8"/>
@@ -18832,7 +18832,7 @@
       <c r="Y437" s="8"/>
       <c r="Z437" s="8"/>
     </row>
-    <row r="438" spans="1:26" ht="23.25" customHeight="1" outlineLevel="4">
+    <row r="438" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="4">
       <c r="A438" s="8"/>
       <c r="B438" s="8"/>
       <c r="C438" s="8"/>
@@ -18861,7 +18861,7 @@
       <c r="Y438" s="8"/>
       <c r="Z438" s="8"/>
     </row>
-    <row r="439" spans="1:26" ht="23.25" customHeight="1" outlineLevel="4">
+    <row r="439" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="4">
       <c r="A439" s="8"/>
       <c r="B439" s="8"/>
       <c r="C439" s="8"/>
@@ -18889,7 +18889,7 @@
       <c r="Y439" s="8"/>
       <c r="Z439" s="8"/>
     </row>
-    <row r="440" spans="1:26" ht="23.25" customHeight="1" outlineLevel="4">
+    <row r="440" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="4">
       <c r="A440" s="8"/>
       <c r="B440" s="8"/>
       <c r="C440" s="8"/>
@@ -18918,7 +18918,7 @@
       <c r="Y440" s="8"/>
       <c r="Z440" s="8"/>
     </row>
-    <row r="441" spans="1:26" ht="23.25" customHeight="1" outlineLevel="4">
+    <row r="441" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="4">
       <c r="A441" s="8"/>
       <c r="B441" s="8"/>
       <c r="C441" s="8"/>
@@ -18946,7 +18946,7 @@
       <c r="Y441" s="8"/>
       <c r="Z441" s="8"/>
     </row>
-    <row r="442" spans="1:26" ht="23.25" customHeight="1" outlineLevel="4">
+    <row r="442" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="4">
       <c r="A442" s="8"/>
       <c r="B442" s="8"/>
       <c r="C442" s="8"/>
@@ -18974,7 +18974,7 @@
       <c r="Y442" s="8"/>
       <c r="Z442" s="8"/>
     </row>
-    <row r="443" spans="1:26" ht="23.25" customHeight="1" outlineLevel="4">
+    <row r="443" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="4">
       <c r="A443" s="8"/>
       <c r="B443" s="8"/>
       <c r="C443" s="8"/>
@@ -19003,7 +19003,7 @@
       <c r="Y443" s="8"/>
       <c r="Z443" s="8"/>
     </row>
-    <row r="444" spans="1:26" ht="23.25" customHeight="1" outlineLevel="4">
+    <row r="444" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="4">
       <c r="A444" s="8"/>
       <c r="B444" s="8"/>
       <c r="C444" s="8"/>
@@ -19031,7 +19031,7 @@
       <c r="Y444" s="8"/>
       <c r="Z444" s="8"/>
     </row>
-    <row r="445" spans="1:26" ht="23.25" customHeight="1" outlineLevel="4">
+    <row r="445" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="4">
       <c r="A445" s="8"/>
       <c r="B445" s="8"/>
       <c r="C445" s="8"/>
@@ -19060,7 +19060,7 @@
       <c r="Y445" s="8"/>
       <c r="Z445" s="8"/>
     </row>
-    <row r="446" spans="1:26" ht="23.25" customHeight="1" outlineLevel="4">
+    <row r="446" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="4">
       <c r="A446" s="8"/>
       <c r="B446" s="8"/>
       <c r="C446" s="8"/>
@@ -19088,7 +19088,7 @@
       <c r="Y446" s="8"/>
       <c r="Z446" s="8"/>
     </row>
-    <row r="447" spans="1:26" ht="23.25" customHeight="1" outlineLevel="4">
+    <row r="447" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="4">
       <c r="A447" s="8"/>
       <c r="B447" s="8"/>
       <c r="C447" s="8"/>
@@ -19117,7 +19117,7 @@
       <c r="Y447" s="8"/>
       <c r="Z447" s="8"/>
     </row>
-    <row r="448" spans="1:26" ht="23.25" customHeight="1" outlineLevel="4">
+    <row r="448" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="4">
       <c r="A448" s="8"/>
       <c r="B448" s="8"/>
       <c r="C448" s="8"/>
@@ -19145,7 +19145,7 @@
       <c r="Y448" s="8"/>
       <c r="Z448" s="8"/>
     </row>
-    <row r="449" spans="1:26" ht="23.25" customHeight="1" outlineLevel="4">
+    <row r="449" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="4">
       <c r="A449" s="8"/>
       <c r="B449" s="8"/>
       <c r="C449" s="8"/>
@@ -19174,7 +19174,7 @@
       <c r="Y449" s="8"/>
       <c r="Z449" s="8"/>
     </row>
-    <row r="450" spans="1:26" ht="23.25" customHeight="1" outlineLevel="4">
+    <row r="450" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="4">
       <c r="A450" s="8"/>
       <c r="B450" s="8"/>
       <c r="C450" s="8"/>
@@ -19202,7 +19202,7 @@
       <c r="Y450" s="8"/>
       <c r="Z450" s="8"/>
     </row>
-    <row r="451" spans="1:26" ht="23.25" customHeight="1" outlineLevel="4">
+    <row r="451" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="4">
       <c r="A451" s="8"/>
       <c r="B451" s="8"/>
       <c r="C451" s="8"/>
@@ -19231,7 +19231,7 @@
       <c r="Y451" s="8"/>
       <c r="Z451" s="8"/>
     </row>
-    <row r="452" spans="1:26" ht="23.25" customHeight="1" outlineLevel="4">
+    <row r="452" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="4">
       <c r="A452" s="8"/>
       <c r="B452" s="8"/>
       <c r="C452" s="8"/>
@@ -19259,7 +19259,7 @@
       <c r="Y452" s="8"/>
       <c r="Z452" s="8"/>
     </row>
-    <row r="453" spans="1:26" ht="23.25" customHeight="1" outlineLevel="4">
+    <row r="453" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="4">
       <c r="A453" s="8"/>
       <c r="B453" s="8"/>
       <c r="C453" s="8"/>
@@ -19288,7 +19288,7 @@
       <c r="Y453" s="8"/>
       <c r="Z453" s="8"/>
     </row>
-    <row r="454" spans="1:26" ht="23.25" customHeight="1" outlineLevel="4">
+    <row r="454" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="4">
       <c r="A454" s="8"/>
       <c r="B454" s="8"/>
       <c r="C454" s="8"/>
@@ -19316,7 +19316,7 @@
       <c r="Y454" s="8"/>
       <c r="Z454" s="8"/>
     </row>
-    <row r="455" spans="1:26" ht="23.25" customHeight="1" outlineLevel="4">
+    <row r="455" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="4">
       <c r="A455" s="8"/>
       <c r="B455" s="8"/>
       <c r="C455" s="8"/>
@@ -19344,7 +19344,7 @@
       <c r="Y455" s="8"/>
       <c r="Z455" s="8"/>
     </row>
-    <row r="456" spans="1:26" ht="23.25" customHeight="1" outlineLevel="4">
+    <row r="456" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="4">
       <c r="A456" s="8"/>
       <c r="B456" s="8"/>
       <c r="C456" s="8"/>
@@ -19373,7 +19373,7 @@
       <c r="Y456" s="8"/>
       <c r="Z456" s="8"/>
     </row>
-    <row r="457" spans="1:26" ht="23.25" customHeight="1" outlineLevel="4">
+    <row r="457" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="4">
       <c r="A457" s="8"/>
       <c r="B457" s="8"/>
       <c r="C457" s="8"/>
@@ -19401,7 +19401,7 @@
       <c r="Y457" s="8"/>
       <c r="Z457" s="8"/>
     </row>
-    <row r="458" spans="1:26" ht="23.25" customHeight="1" outlineLevel="4">
+    <row r="458" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="4">
       <c r="A458" s="8"/>
       <c r="B458" s="8"/>
       <c r="C458" s="8"/>
@@ -19430,7 +19430,7 @@
       <c r="Y458" s="8"/>
       <c r="Z458" s="8"/>
     </row>
-    <row r="459" spans="1:26" ht="23.25" customHeight="1" outlineLevel="4">
+    <row r="459" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="4">
       <c r="A459" s="8"/>
       <c r="B459" s="8"/>
       <c r="C459" s="8"/>
@@ -19458,7 +19458,7 @@
       <c r="Y459" s="8"/>
       <c r="Z459" s="8"/>
     </row>
-    <row r="460" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3" collapsed="1">
+    <row r="460" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3" collapsed="1">
       <c r="A460" s="8"/>
       <c r="B460" s="8"/>
       <c r="C460" s="8"/>
@@ -19762,7 +19762,7 @@
       <c r="Y469" s="8"/>
       <c r="Z469" s="8"/>
     </row>
-    <row r="470" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="470" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A470" s="8"/>
       <c r="B470" s="8"/>
       <c r="C470" s="8"/>
@@ -19792,7 +19792,7 @@
       <c r="Y470" s="8"/>
       <c r="Z470" s="8"/>
     </row>
-    <row r="471" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3" collapsed="1">
+    <row r="471" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3" collapsed="1">
       <c r="A471" s="8"/>
       <c r="B471" s="8"/>
       <c r="C471" s="8"/>
@@ -20512,7 +20512,7 @@
       <c r="Y494" s="8"/>
       <c r="Z494" s="8"/>
     </row>
-    <row r="495" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="495" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A495" s="8"/>
       <c r="B495" s="8"/>
       <c r="C495" s="8"/>
@@ -20542,7 +20542,7 @@
       <c r="Y495" s="8"/>
       <c r="Z495" s="8"/>
     </row>
-    <row r="496" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="496" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A496" s="8"/>
       <c r="B496" s="8"/>
       <c r="C496" s="8"/>
@@ -20572,7 +20572,7 @@
       <c r="Y496" s="8"/>
       <c r="Z496" s="8"/>
     </row>
-    <row r="497" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="497" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A497" s="8"/>
       <c r="B497" s="8"/>
       <c r="C497" s="9" t="s">
@@ -20604,7 +20604,7 @@
       <c r="Y497" s="8"/>
       <c r="Z497" s="8"/>
     </row>
-    <row r="498" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="498" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A498" s="8"/>
       <c r="B498" s="8"/>
       <c r="C498" s="8"/>
@@ -20634,7 +20634,7 @@
       <c r="Y498" s="8"/>
       <c r="Z498" s="8"/>
     </row>
-    <row r="499" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="499" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A499" s="8"/>
       <c r="B499" s="8"/>
       <c r="C499" s="8"/>
@@ -20666,7 +20666,7 @@
       <c r="Y499" s="8"/>
       <c r="Z499" s="8"/>
     </row>
-    <row r="500" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="500" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A500" s="8"/>
       <c r="B500" s="8"/>
       <c r="C500" s="8"/>
@@ -20698,7 +20698,7 @@
       <c r="Y500" s="8"/>
       <c r="Z500" s="8"/>
     </row>
-    <row r="501" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="501" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A501" s="8"/>
       <c r="B501" s="8"/>
       <c r="C501" s="8"/>
@@ -20730,7 +20730,7 @@
       <c r="Y501" s="8"/>
       <c r="Z501" s="8"/>
     </row>
-    <row r="502" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="502" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A502" s="8"/>
       <c r="B502" s="8"/>
       <c r="C502" s="8"/>
@@ -20762,7 +20762,7 @@
       <c r="Y502" s="8"/>
       <c r="Z502" s="8"/>
     </row>
-    <row r="503" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="503" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A503" s="8"/>
       <c r="B503" s="8"/>
       <c r="C503" s="8"/>
@@ -20794,7 +20794,7 @@
       <c r="Y503" s="8"/>
       <c r="Z503" s="8"/>
     </row>
-    <row r="504" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="504" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A504" s="8"/>
       <c r="B504" s="8"/>
       <c r="C504" s="8"/>
@@ -20826,7 +20826,7 @@
       <c r="Y504" s="8"/>
       <c r="Z504" s="8"/>
     </row>
-    <row r="505" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="505" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A505" s="8"/>
       <c r="B505" s="8"/>
       <c r="C505" s="8"/>
@@ -20858,7 +20858,7 @@
       <c r="Y505" s="8"/>
       <c r="Z505" s="8"/>
     </row>
-    <row r="506" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="506" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A506" s="8"/>
       <c r="B506" s="8"/>
       <c r="C506" s="8"/>
@@ -20890,7 +20890,7 @@
       <c r="Y506" s="8"/>
       <c r="Z506" s="8"/>
     </row>
-    <row r="507" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="507" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A507" s="8"/>
       <c r="B507" s="8"/>
       <c r="C507" s="8"/>
@@ -20922,7 +20922,7 @@
       <c r="Y507" s="8"/>
       <c r="Z507" s="8"/>
     </row>
-    <row r="508" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="508" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A508" s="8"/>
       <c r="B508" s="8"/>
       <c r="C508" s="8"/>
@@ -20954,7 +20954,7 @@
       <c r="Y508" s="8"/>
       <c r="Z508" s="8"/>
     </row>
-    <row r="509" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="509" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A509" s="8"/>
       <c r="B509" s="8"/>
       <c r="C509" s="8"/>
@@ -20986,7 +20986,7 @@
       <c r="Y509" s="8"/>
       <c r="Z509" s="8"/>
     </row>
-    <row r="510" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="510" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A510" s="8"/>
       <c r="B510" s="8"/>
       <c r="C510" s="8"/>
@@ -21018,7 +21018,7 @@
       <c r="Y510" s="8"/>
       <c r="Z510" s="8"/>
     </row>
-    <row r="511" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="511" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A511" s="8"/>
       <c r="B511" s="8"/>
       <c r="C511" s="8"/>
@@ -21050,7 +21050,7 @@
       <c r="Y511" s="8"/>
       <c r="Z511" s="8"/>
     </row>
-    <row r="512" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="512" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A512" s="8"/>
       <c r="B512" s="8"/>
       <c r="C512" s="8"/>
@@ -21082,7 +21082,7 @@
       <c r="Y512" s="8"/>
       <c r="Z512" s="8"/>
     </row>
-    <row r="513" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="513" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A513" s="8"/>
       <c r="B513" s="8"/>
       <c r="C513" s="8"/>
@@ -21114,7 +21114,7 @@
       <c r="Y513" s="8"/>
       <c r="Z513" s="8"/>
     </row>
-    <row r="514" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="514" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A514" s="8"/>
       <c r="B514" s="8"/>
       <c r="C514" s="8"/>
@@ -21146,7 +21146,7 @@
       <c r="Y514" s="8"/>
       <c r="Z514" s="8"/>
     </row>
-    <row r="515" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="515" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A515" s="8"/>
       <c r="B515" s="8"/>
       <c r="C515" s="8"/>
@@ -21178,7 +21178,7 @@
       <c r="Y515" s="8"/>
       <c r="Z515" s="8"/>
     </row>
-    <row r="516" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="516" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A516" s="8"/>
       <c r="B516" s="8"/>
       <c r="C516" s="8"/>
@@ -21210,7 +21210,7 @@
       <c r="Y516" s="8"/>
       <c r="Z516" s="8"/>
     </row>
-    <row r="517" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="517" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A517" s="8"/>
       <c r="B517" s="8"/>
       <c r="C517" s="8"/>
@@ -21242,7 +21242,7 @@
       <c r="Y517" s="8"/>
       <c r="Z517" s="8"/>
     </row>
-    <row r="518" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="518" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A518" s="8"/>
       <c r="B518" s="8"/>
       <c r="C518" s="8"/>
@@ -21274,7 +21274,7 @@
       <c r="Y518" s="8"/>
       <c r="Z518" s="8"/>
     </row>
-    <row r="519" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="519" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A519" s="8"/>
       <c r="B519" s="8"/>
       <c r="C519" s="8"/>
@@ -21306,7 +21306,7 @@
       <c r="Y519" s="8"/>
       <c r="Z519" s="8"/>
     </row>
-    <row r="520" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="520" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A520" s="8"/>
       <c r="B520" s="8"/>
       <c r="C520" s="8"/>
@@ -21338,7 +21338,7 @@
       <c r="Y520" s="8"/>
       <c r="Z520" s="8"/>
     </row>
-    <row r="521" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="521" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A521" s="8"/>
       <c r="B521" s="8"/>
       <c r="C521" s="8"/>
@@ -21370,7 +21370,7 @@
       <c r="Y521" s="8"/>
       <c r="Z521" s="8"/>
     </row>
-    <row r="522" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="522" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A522" s="8"/>
       <c r="B522" s="8"/>
       <c r="C522" s="8"/>
@@ -21402,7 +21402,7 @@
       <c r="Y522" s="8"/>
       <c r="Z522" s="8"/>
     </row>
-    <row r="523" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="523" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A523" s="8"/>
       <c r="B523" s="8"/>
       <c r="C523" s="8"/>
@@ -21434,7 +21434,7 @@
       <c r="Y523" s="8"/>
       <c r="Z523" s="8"/>
     </row>
-    <row r="524" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="524" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A524" s="8"/>
       <c r="B524" s="8"/>
       <c r="C524" s="8"/>
@@ -21466,7 +21466,7 @@
       <c r="Y524" s="8"/>
       <c r="Z524" s="8"/>
     </row>
-    <row r="525" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="525" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A525" s="8"/>
       <c r="B525" s="8"/>
       <c r="C525" s="8"/>
@@ -21498,7 +21498,7 @@
       <c r="Y525" s="8"/>
       <c r="Z525" s="8"/>
     </row>
-    <row r="526" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="526" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A526" s="8"/>
       <c r="B526" s="8"/>
       <c r="C526" s="8"/>
@@ -21530,7 +21530,7 @@
       <c r="Y526" s="8"/>
       <c r="Z526" s="8"/>
     </row>
-    <row r="527" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="527" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A527" s="8"/>
       <c r="B527" s="8"/>
       <c r="C527" s="8"/>
@@ -21562,7 +21562,7 @@
       <c r="Y527" s="8"/>
       <c r="Z527" s="8"/>
     </row>
-    <row r="528" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="528" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A528" s="8"/>
       <c r="B528" s="8"/>
       <c r="C528" s="8"/>
@@ -21594,7 +21594,7 @@
       <c r="Y528" s="8"/>
       <c r="Z528" s="8"/>
     </row>
-    <row r="529" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="529" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A529" s="8"/>
       <c r="B529" s="8"/>
       <c r="C529" s="8"/>
@@ -21626,7 +21626,7 @@
       <c r="Y529" s="8"/>
       <c r="Z529" s="8"/>
     </row>
-    <row r="530" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="530" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A530" s="8"/>
       <c r="B530" s="8"/>
       <c r="C530" s="8"/>
@@ -21658,7 +21658,7 @@
       <c r="Y530" s="8"/>
       <c r="Z530" s="8"/>
     </row>
-    <row r="531" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="531" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A531" s="8"/>
       <c r="B531" s="8"/>
       <c r="C531" s="8"/>
@@ -21690,7 +21690,7 @@
       <c r="Y531" s="8"/>
       <c r="Z531" s="8"/>
     </row>
-    <row r="532" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="532" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A532" s="8"/>
       <c r="B532" s="8"/>
       <c r="C532" s="8"/>
@@ -21722,7 +21722,7 @@
       <c r="Y532" s="8"/>
       <c r="Z532" s="8"/>
     </row>
-    <row r="533" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="533" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A533" s="8"/>
       <c r="B533" s="8"/>
       <c r="C533" s="8"/>
@@ -21754,7 +21754,7 @@
       <c r="Y533" s="8"/>
       <c r="Z533" s="8"/>
     </row>
-    <row r="534" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="534" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A534" s="8"/>
       <c r="B534" s="8"/>
       <c r="C534" s="8"/>
@@ -21786,7 +21786,7 @@
       <c r="Y534" s="8"/>
       <c r="Z534" s="8"/>
     </row>
-    <row r="535" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="535" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A535" s="8"/>
       <c r="B535" s="8"/>
       <c r="C535" s="8"/>
@@ -21818,7 +21818,7 @@
       <c r="Y535" s="8"/>
       <c r="Z535" s="8"/>
     </row>
-    <row r="536" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="536" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A536" s="8"/>
       <c r="B536" s="8"/>
       <c r="C536" s="8"/>
@@ -21850,7 +21850,7 @@
       <c r="Y536" s="8"/>
       <c r="Z536" s="8"/>
     </row>
-    <row r="537" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="537" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A537" s="8"/>
       <c r="B537" s="8"/>
       <c r="C537" s="8"/>
@@ -21882,7 +21882,7 @@
       <c r="Y537" s="8"/>
       <c r="Z537" s="8"/>
     </row>
-    <row r="538" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="538" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A538" s="8"/>
       <c r="B538" s="8"/>
       <c r="C538" s="8"/>
@@ -21914,7 +21914,7 @@
       <c r="Y538" s="8"/>
       <c r="Z538" s="8"/>
     </row>
-    <row r="539" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="539" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A539" s="8"/>
       <c r="B539" s="8"/>
       <c r="C539" s="8"/>
@@ -21946,7 +21946,7 @@
       <c r="Y539" s="8"/>
       <c r="Z539" s="8"/>
     </row>
-    <row r="540" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="540" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A540" s="8"/>
       <c r="B540" s="8"/>
       <c r="C540" s="8"/>
@@ -21978,7 +21978,7 @@
       <c r="Y540" s="8"/>
       <c r="Z540" s="8"/>
     </row>
-    <row r="541" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="541" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A541" s="8"/>
       <c r="B541" s="8"/>
       <c r="C541" s="8"/>
@@ -22010,7 +22010,7 @@
       <c r="Y541" s="8"/>
       <c r="Z541" s="8"/>
     </row>
-    <row r="542" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="542" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A542" s="8"/>
       <c r="B542" s="8"/>
       <c r="C542" s="8"/>
@@ -22040,7 +22040,7 @@
       <c r="Y542" s="8"/>
       <c r="Z542" s="8"/>
     </row>
-    <row r="543" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="543" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A543" s="8"/>
       <c r="B543" s="8"/>
       <c r="C543" s="9" t="s">
@@ -22072,7 +22072,7 @@
       <c r="Y543" s="8"/>
       <c r="Z543" s="8"/>
     </row>
-    <row r="544" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="544" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A544" s="8"/>
       <c r="B544" s="8"/>
       <c r="C544" s="8"/>
@@ -22102,7 +22102,7 @@
       <c r="Y544" s="8"/>
       <c r="Z544" s="8"/>
     </row>
-    <row r="545" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="545" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A545" s="8"/>
       <c r="B545" s="8"/>
       <c r="C545" s="8"/>
@@ -22134,7 +22134,7 @@
       <c r="Y545" s="8"/>
       <c r="Z545" s="8"/>
     </row>
-    <row r="546" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="546" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A546" s="8"/>
       <c r="B546" s="8"/>
       <c r="C546" s="8"/>
@@ -22166,7 +22166,7 @@
       <c r="Y546" s="8"/>
       <c r="Z546" s="8"/>
     </row>
-    <row r="547" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="547" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A547" s="8"/>
       <c r="B547" s="8"/>
       <c r="C547" s="8"/>
@@ -22198,7 +22198,7 @@
       <c r="Y547" s="8"/>
       <c r="Z547" s="8"/>
     </row>
-    <row r="548" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="548" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A548" s="8"/>
       <c r="B548" s="8"/>
       <c r="C548" s="8"/>
@@ -22230,7 +22230,7 @@
       <c r="Y548" s="8"/>
       <c r="Z548" s="8"/>
     </row>
-    <row r="549" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="549" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A549" s="8"/>
       <c r="B549" s="8"/>
       <c r="C549" s="8"/>
@@ -22262,7 +22262,7 @@
       <c r="Y549" s="8"/>
       <c r="Z549" s="8"/>
     </row>
-    <row r="550" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="550" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A550" s="8"/>
       <c r="B550" s="8"/>
       <c r="C550" s="8"/>
@@ -22294,7 +22294,7 @@
       <c r="Y550" s="8"/>
       <c r="Z550" s="8"/>
     </row>
-    <row r="551" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="551" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A551" s="8"/>
       <c r="B551" s="8"/>
       <c r="C551" s="8"/>
@@ -22326,7 +22326,7 @@
       <c r="Y551" s="8"/>
       <c r="Z551" s="8"/>
     </row>
-    <row r="552" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="552" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A552" s="8"/>
       <c r="B552" s="8"/>
       <c r="C552" s="8"/>
@@ -22358,7 +22358,7 @@
       <c r="Y552" s="8"/>
       <c r="Z552" s="8"/>
     </row>
-    <row r="553" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="553" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A553" s="8"/>
       <c r="B553" s="8"/>
       <c r="C553" s="8"/>
@@ -22390,7 +22390,7 @@
       <c r="Y553" s="8"/>
       <c r="Z553" s="8"/>
     </row>
-    <row r="554" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="554" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A554" s="8"/>
       <c r="B554" s="8"/>
       <c r="C554" s="8"/>
@@ -22422,7 +22422,7 @@
       <c r="Y554" s="8"/>
       <c r="Z554" s="8"/>
     </row>
-    <row r="555" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="555" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A555" s="8"/>
       <c r="B555" s="8"/>
       <c r="C555" s="8"/>
@@ -22454,7 +22454,7 @@
       <c r="Y555" s="8"/>
       <c r="Z555" s="8"/>
     </row>
-    <row r="556" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="556" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A556" s="8"/>
       <c r="B556" s="8"/>
       <c r="C556" s="8"/>
@@ -22486,7 +22486,7 @@
       <c r="Y556" s="8"/>
       <c r="Z556" s="8"/>
     </row>
-    <row r="557" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="557" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A557" s="8"/>
       <c r="B557" s="8"/>
       <c r="C557" s="8"/>
@@ -22518,7 +22518,7 @@
       <c r="Y557" s="8"/>
       <c r="Z557" s="8"/>
     </row>
-    <row r="558" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="558" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A558" s="8"/>
       <c r="B558" s="8"/>
       <c r="C558" s="8"/>
@@ -22550,7 +22550,7 @@
       <c r="Y558" s="8"/>
       <c r="Z558" s="8"/>
     </row>
-    <row r="559" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="559" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A559" s="8"/>
       <c r="B559" s="8"/>
       <c r="C559" s="8"/>
@@ -22582,7 +22582,7 @@
       <c r="Y559" s="8"/>
       <c r="Z559" s="8"/>
     </row>
-    <row r="560" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="560" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A560" s="8"/>
       <c r="B560" s="8"/>
       <c r="C560" s="9" t="s">
@@ -22614,7 +22614,7 @@
       <c r="Y560" s="8"/>
       <c r="Z560" s="8"/>
     </row>
-    <row r="561" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="561" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A561" s="8"/>
       <c r="B561" s="8"/>
       <c r="C561" s="8"/>
@@ -22644,7 +22644,7 @@
       <c r="Y561" s="8"/>
       <c r="Z561" s="8"/>
     </row>
-    <row r="562" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="562" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A562" s="8"/>
       <c r="B562" s="8"/>
       <c r="C562" s="8"/>
@@ -22676,7 +22676,7 @@
       <c r="Y562" s="8"/>
       <c r="Z562" s="8"/>
     </row>
-    <row r="563" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="563" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A563" s="8"/>
       <c r="B563" s="8"/>
       <c r="C563" s="8"/>
@@ -22708,7 +22708,7 @@
       <c r="Y563" s="8"/>
       <c r="Z563" s="8"/>
     </row>
-    <row r="564" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="564" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A564" s="8"/>
       <c r="B564" s="8"/>
       <c r="C564" s="8"/>
@@ -22740,7 +22740,7 @@
       <c r="Y564" s="8"/>
       <c r="Z564" s="8"/>
     </row>
-    <row r="565" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="565" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A565" s="8"/>
       <c r="B565" s="8"/>
       <c r="C565" s="8"/>
@@ -22772,7 +22772,7 @@
       <c r="Y565" s="8"/>
       <c r="Z565" s="8"/>
     </row>
-    <row r="566" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="566" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A566" s="8"/>
       <c r="B566" s="8"/>
       <c r="C566" s="8"/>
@@ -22804,7 +22804,7 @@
       <c r="Y566" s="8"/>
       <c r="Z566" s="8"/>
     </row>
-    <row r="567" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="567" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A567" s="8"/>
       <c r="B567" s="8"/>
       <c r="C567" s="8"/>
@@ -22836,7 +22836,7 @@
       <c r="Y567" s="8"/>
       <c r="Z567" s="8"/>
     </row>
-    <row r="568" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="568" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A568" s="8"/>
       <c r="B568" s="8"/>
       <c r="C568" s="8"/>
@@ -22868,7 +22868,7 @@
       <c r="Y568" s="8"/>
       <c r="Z568" s="8"/>
     </row>
-    <row r="569" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="569" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A569" s="8"/>
       <c r="B569" s="8"/>
       <c r="C569" s="8"/>
@@ -22900,7 +22900,7 @@
       <c r="Y569" s="8"/>
       <c r="Z569" s="8"/>
     </row>
-    <row r="570" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="570" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A570" s="8"/>
       <c r="B570" s="8"/>
       <c r="C570" s="8"/>
@@ -22932,7 +22932,7 @@
       <c r="Y570" s="8"/>
       <c r="Z570" s="8"/>
     </row>
-    <row r="571" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="571" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A571" s="8"/>
       <c r="B571" s="8"/>
       <c r="C571" s="8"/>
@@ -22964,7 +22964,7 @@
       <c r="Y571" s="8"/>
       <c r="Z571" s="8"/>
     </row>
-    <row r="572" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="572" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A572" s="8"/>
       <c r="B572" s="8"/>
       <c r="C572" s="8"/>
@@ -22996,7 +22996,7 @@
       <c r="Y572" s="8"/>
       <c r="Z572" s="8"/>
     </row>
-    <row r="573" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="573" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A573" s="8"/>
       <c r="B573" s="8"/>
       <c r="C573" s="8"/>
@@ -23028,7 +23028,7 @@
       <c r="Y573" s="8"/>
       <c r="Z573" s="8"/>
     </row>
-    <row r="574" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="574" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A574" s="8"/>
       <c r="B574" s="8"/>
       <c r="C574" s="8"/>
@@ -23060,7 +23060,7 @@
       <c r="Y574" s="8"/>
       <c r="Z574" s="8"/>
     </row>
-    <row r="575" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="575" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A575" s="8"/>
       <c r="B575" s="8"/>
       <c r="C575" s="8"/>
@@ -23092,7 +23092,7 @@
       <c r="Y575" s="8"/>
       <c r="Z575" s="8"/>
     </row>
-    <row r="576" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="576" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A576" s="8"/>
       <c r="B576" s="8"/>
       <c r="C576" s="9" t="s">
@@ -23124,7 +23124,7 @@
       <c r="Y576" s="8"/>
       <c r="Z576" s="8"/>
     </row>
-    <row r="577" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="577" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A577" s="8"/>
       <c r="B577" s="8"/>
       <c r="C577" s="8"/>
@@ -23154,7 +23154,7 @@
       <c r="Y577" s="8"/>
       <c r="Z577" s="8"/>
     </row>
-    <row r="578" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="578" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A578" s="8"/>
       <c r="B578" s="8"/>
       <c r="C578" s="8"/>
@@ -23186,7 +23186,7 @@
       <c r="Y578" s="8"/>
       <c r="Z578" s="8"/>
     </row>
-    <row r="579" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="579" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A579" s="8"/>
       <c r="B579" s="8"/>
       <c r="C579" s="8"/>
@@ -23218,7 +23218,7 @@
       <c r="Y579" s="8"/>
       <c r="Z579" s="8"/>
     </row>
-    <row r="580" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="580" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A580" s="8"/>
       <c r="B580" s="8"/>
       <c r="C580" s="8"/>
@@ -23250,7 +23250,7 @@
       <c r="Y580" s="8"/>
       <c r="Z580" s="8"/>
     </row>
-    <row r="581" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="581" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A581" s="8"/>
       <c r="B581" s="8"/>
       <c r="C581" s="8"/>
@@ -23282,7 +23282,7 @@
       <c r="Y581" s="8"/>
       <c r="Z581" s="8"/>
     </row>
-    <row r="582" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="582" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A582" s="8"/>
       <c r="B582" s="8"/>
       <c r="C582" s="8"/>
@@ -23314,7 +23314,7 @@
       <c r="Y582" s="8"/>
       <c r="Z582" s="8"/>
     </row>
-    <row r="583" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="583" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A583" s="8"/>
       <c r="B583" s="8"/>
       <c r="C583" s="8"/>
@@ -23346,7 +23346,7 @@
       <c r="Y583" s="8"/>
       <c r="Z583" s="8"/>
     </row>
-    <row r="584" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="584" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A584" s="8"/>
       <c r="B584" s="8"/>
       <c r="C584" s="8"/>
@@ -23378,7 +23378,7 @@
       <c r="Y584" s="8"/>
       <c r="Z584" s="8"/>
     </row>
-    <row r="585" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="585" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A585" s="8"/>
       <c r="B585" s="8"/>
       <c r="C585" s="8"/>
@@ -23410,7 +23410,7 @@
       <c r="Y585" s="8"/>
       <c r="Z585" s="8"/>
     </row>
-    <row r="586" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="586" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A586" s="8"/>
       <c r="B586" s="8"/>
       <c r="C586" s="8"/>
@@ -23442,7 +23442,7 @@
       <c r="Y586" s="8"/>
       <c r="Z586" s="8"/>
     </row>
-    <row r="587" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="587" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A587" s="8"/>
       <c r="B587" s="8"/>
       <c r="C587" s="8"/>
@@ -23474,7 +23474,7 @@
       <c r="Y587" s="8"/>
       <c r="Z587" s="8"/>
     </row>
-    <row r="588" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="588" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A588" s="8"/>
       <c r="B588" s="8"/>
       <c r="C588" s="8"/>
@@ -23506,7 +23506,7 @@
       <c r="Y588" s="8"/>
       <c r="Z588" s="8"/>
     </row>
-    <row r="589" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="589" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A589" s="8"/>
       <c r="B589" s="8"/>
       <c r="C589" s="8"/>
@@ -23538,7 +23538,7 @@
       <c r="Y589" s="8"/>
       <c r="Z589" s="8"/>
     </row>
-    <row r="590" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="590" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A590" s="8"/>
       <c r="B590" s="8"/>
       <c r="C590" s="8"/>
@@ -23570,7 +23570,7 @@
       <c r="Y590" s="8"/>
       <c r="Z590" s="8"/>
     </row>
-    <row r="591" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="591" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A591" s="8"/>
       <c r="B591" s="8"/>
       <c r="C591" s="8"/>
@@ -23602,7 +23602,7 @@
       <c r="Y591" s="8"/>
       <c r="Z591" s="8"/>
     </row>
-    <row r="592" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="592" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A592" s="8"/>
       <c r="B592" s="8"/>
       <c r="C592" s="8"/>
@@ -23634,7 +23634,7 @@
       <c r="Y592" s="8"/>
       <c r="Z592" s="8"/>
     </row>
-    <row r="593" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="593" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A593" s="8"/>
       <c r="B593" s="8"/>
       <c r="C593" s="9" t="s">
@@ -23666,7 +23666,7 @@
       <c r="Y593" s="8"/>
       <c r="Z593" s="8"/>
     </row>
-    <row r="594" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="594" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A594" s="8"/>
       <c r="B594" s="8"/>
       <c r="C594" s="8"/>
@@ -23696,7 +23696,7 @@
       <c r="Y594" s="8"/>
       <c r="Z594" s="8"/>
     </row>
-    <row r="595" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="595" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A595" s="8"/>
       <c r="B595" s="8"/>
       <c r="C595" s="8"/>
@@ -23728,7 +23728,7 @@
       <c r="Y595" s="8"/>
       <c r="Z595" s="8"/>
     </row>
-    <row r="596" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="596" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A596" s="8"/>
       <c r="B596" s="8"/>
       <c r="C596" s="8"/>
@@ -23760,7 +23760,7 @@
       <c r="Y596" s="8"/>
       <c r="Z596" s="8"/>
     </row>
-    <row r="597" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="597" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A597" s="8"/>
       <c r="B597" s="8"/>
       <c r="C597" s="8"/>
@@ -23792,7 +23792,7 @@
       <c r="Y597" s="8"/>
       <c r="Z597" s="8"/>
     </row>
-    <row r="598" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="598" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A598" s="8"/>
       <c r="B598" s="8"/>
       <c r="C598" s="8"/>
@@ -23824,7 +23824,7 @@
       <c r="Y598" s="8"/>
       <c r="Z598" s="8"/>
     </row>
-    <row r="599" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="599" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A599" s="8"/>
       <c r="B599" s="8"/>
       <c r="C599" s="8"/>
@@ -23856,7 +23856,7 @@
       <c r="Y599" s="8"/>
       <c r="Z599" s="8"/>
     </row>
-    <row r="600" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="600" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A600" s="8"/>
       <c r="B600" s="8"/>
       <c r="C600" s="8"/>
@@ -23888,7 +23888,7 @@
       <c r="Y600" s="8"/>
       <c r="Z600" s="8"/>
     </row>
-    <row r="601" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="601" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A601" s="8"/>
       <c r="B601" s="8"/>
       <c r="C601" s="8"/>
@@ -23920,7 +23920,7 @@
       <c r="Y601" s="8"/>
       <c r="Z601" s="8"/>
     </row>
-    <row r="602" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="602" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A602" s="8"/>
       <c r="B602" s="8"/>
       <c r="C602" s="9" t="s">
@@ -23952,7 +23952,7 @@
       <c r="Y602" s="8"/>
       <c r="Z602" s="8"/>
     </row>
-    <row r="603" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="603" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A603" s="8"/>
       <c r="B603" s="8"/>
       <c r="C603" s="8"/>
@@ -23982,7 +23982,7 @@
       <c r="Y603" s="8"/>
       <c r="Z603" s="8"/>
     </row>
-    <row r="604" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="604" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A604" s="8"/>
       <c r="B604" s="8"/>
       <c r="C604" s="8"/>
@@ -24012,7 +24012,7 @@
       <c r="Y604" s="8"/>
       <c r="Z604" s="8"/>
     </row>
-    <row r="605" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="605" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A605" s="8"/>
       <c r="B605" s="8"/>
       <c r="C605" s="8"/>
@@ -24042,7 +24042,7 @@
       <c r="Y605" s="8"/>
       <c r="Z605" s="8"/>
     </row>
-    <row r="606" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="606" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A606" s="8"/>
       <c r="B606" s="8"/>
       <c r="C606" s="8"/>
@@ -24072,7 +24072,7 @@
       <c r="Y606" s="8"/>
       <c r="Z606" s="8"/>
     </row>
-    <row r="607" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="607" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A607" s="8"/>
       <c r="B607" s="8"/>
       <c r="C607" s="8"/>
@@ -24102,7 +24102,7 @@
       <c r="Y607" s="8"/>
       <c r="Z607" s="8"/>
     </row>
-    <row r="608" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="608" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A608" s="8"/>
       <c r="B608" s="8"/>
       <c r="C608" s="8"/>
@@ -24132,7 +24132,7 @@
       <c r="Y608" s="8"/>
       <c r="Z608" s="8"/>
     </row>
-    <row r="609" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="609" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A609" s="8"/>
       <c r="B609" s="8"/>
       <c r="C609" s="8"/>
@@ -24162,7 +24162,7 @@
       <c r="Y609" s="8"/>
       <c r="Z609" s="8"/>
     </row>
-    <row r="610" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="610" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A610" s="8"/>
       <c r="B610" s="8"/>
       <c r="C610" s="8"/>
@@ -24192,7 +24192,7 @@
       <c r="Y610" s="8"/>
       <c r="Z610" s="8"/>
     </row>
-    <row r="611" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="611" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A611" s="8"/>
       <c r="B611" s="8"/>
       <c r="C611" s="8"/>
@@ -24222,7 +24222,7 @@
       <c r="Y611" s="8"/>
       <c r="Z611" s="8"/>
     </row>
-    <row r="612" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="612" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A612" s="8"/>
       <c r="B612" s="8"/>
       <c r="C612" s="9" t="s">
@@ -24254,7 +24254,7 @@
       <c r="Y612" s="8"/>
       <c r="Z612" s="8"/>
     </row>
-    <row r="613" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="613" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A613" s="8"/>
       <c r="B613" s="8"/>
       <c r="C613" s="8"/>
@@ -24284,7 +24284,7 @@
       <c r="Y613" s="8"/>
       <c r="Z613" s="8"/>
     </row>
-    <row r="614" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="614" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A614" s="8"/>
       <c r="B614" s="8"/>
       <c r="C614" s="8"/>
@@ -24314,7 +24314,7 @@
       <c r="Y614" s="8"/>
       <c r="Z614" s="8"/>
     </row>
-    <row r="615" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="615" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A615" s="8"/>
       <c r="B615" s="8"/>
       <c r="C615" s="8"/>
@@ -24344,7 +24344,7 @@
       <c r="Y615" s="8"/>
       <c r="Z615" s="8"/>
     </row>
-    <row r="616" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="616" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A616" s="8"/>
       <c r="B616" s="8"/>
       <c r="C616" s="8"/>
@@ -24374,7 +24374,7 @@
       <c r="Y616" s="8"/>
       <c r="Z616" s="8"/>
     </row>
-    <row r="617" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="617" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A617" s="8"/>
       <c r="B617" s="8"/>
       <c r="C617" s="8"/>
@@ -24404,7 +24404,7 @@
       <c r="Y617" s="8"/>
       <c r="Z617" s="8"/>
     </row>
-    <row r="618" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="618" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A618" s="8"/>
       <c r="B618" s="8"/>
       <c r="C618" s="8"/>
@@ -24434,7 +24434,7 @@
       <c r="Y618" s="8"/>
       <c r="Z618" s="8"/>
     </row>
-    <row r="619" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="619" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A619" s="8"/>
       <c r="B619" s="8"/>
       <c r="C619" s="8"/>
@@ -24464,7 +24464,7 @@
       <c r="Y619" s="8"/>
       <c r="Z619" s="8"/>
     </row>
-    <row r="620" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="620" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A620" s="8"/>
       <c r="B620" s="8"/>
       <c r="C620" s="8"/>
@@ -24494,7 +24494,7 @@
       <c r="Y620" s="8"/>
       <c r="Z620" s="8"/>
     </row>
-    <row r="621" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="621" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A621" s="8"/>
       <c r="B621" s="8"/>
       <c r="C621" s="9" t="s">
@@ -24526,7 +24526,7 @@
       <c r="Y621" s="8"/>
       <c r="Z621" s="8"/>
     </row>
-    <row r="622" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="622" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A622" s="8"/>
       <c r="B622" s="8"/>
       <c r="C622" s="8"/>
@@ -24556,7 +24556,7 @@
       <c r="Y622" s="8"/>
       <c r="Z622" s="8"/>
     </row>
-    <row r="623" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="623" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A623" s="8"/>
       <c r="B623" s="8"/>
       <c r="C623" s="8"/>
@@ -24586,7 +24586,7 @@
       <c r="Y623" s="8"/>
       <c r="Z623" s="8"/>
     </row>
-    <row r="624" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="624" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A624" s="8"/>
       <c r="B624" s="8"/>
       <c r="C624" s="9" t="s">
@@ -24618,7 +24618,7 @@
       <c r="Y624" s="8"/>
       <c r="Z624" s="8"/>
     </row>
-    <row r="625" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="625" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A625" s="8"/>
       <c r="B625" s="8"/>
       <c r="C625" s="8"/>
@@ -24648,7 +24648,7 @@
       <c r="Y625" s="8"/>
       <c r="Z625" s="8"/>
     </row>
-    <row r="626" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="626" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A626" s="8"/>
       <c r="B626" s="8"/>
       <c r="C626" s="9" t="s">
@@ -24680,7 +24680,7 @@
       <c r="Y626" s="8"/>
       <c r="Z626" s="8"/>
     </row>
-    <row r="627" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="627" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A627" s="8"/>
       <c r="B627" s="8"/>
       <c r="C627" s="8"/>
@@ -24710,7 +24710,7 @@
       <c r="Y627" s="8"/>
       <c r="Z627" s="8"/>
     </row>
-    <row r="628" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="628" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A628" s="8"/>
       <c r="B628" s="8"/>
       <c r="C628" s="8"/>
@@ -24740,7 +24740,7 @@
       <c r="Y628" s="8"/>
       <c r="Z628" s="8"/>
     </row>
-    <row r="629" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="629" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A629" s="8"/>
       <c r="B629" s="8"/>
       <c r="C629" s="8"/>
@@ -24770,7 +24770,7 @@
       <c r="Y629" s="8"/>
       <c r="Z629" s="8"/>
     </row>
-    <row r="630" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="630" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A630" s="8"/>
       <c r="B630" s="8"/>
       <c r="C630" s="8"/>
@@ -24800,7 +24800,7 @@
       <c r="Y630" s="8"/>
       <c r="Z630" s="8"/>
     </row>
-    <row r="631" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="631" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A631" s="8"/>
       <c r="B631" s="8"/>
       <c r="C631" s="8"/>
@@ -24830,7 +24830,7 @@
       <c r="Y631" s="8"/>
       <c r="Z631" s="8"/>
     </row>
-    <row r="632" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="632" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A632" s="8"/>
       <c r="B632" s="8"/>
       <c r="C632" s="8"/>
@@ -24860,7 +24860,7 @@
       <c r="Y632" s="8"/>
       <c r="Z632" s="8"/>
     </row>
-    <row r="633" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="633" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A633" s="8"/>
       <c r="B633" s="8"/>
       <c r="C633" s="9" t="s">
@@ -24892,7 +24892,7 @@
       <c r="Y633" s="8"/>
       <c r="Z633" s="8"/>
     </row>
-    <row r="634" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="634" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A634" s="8"/>
       <c r="B634" s="8"/>
       <c r="C634" s="8"/>
@@ -24922,7 +24922,7 @@
       <c r="Y634" s="8"/>
       <c r="Z634" s="8"/>
     </row>
-    <row r="635" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="635" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A635" s="8"/>
       <c r="B635" s="8"/>
       <c r="C635" s="8"/>
@@ -24952,7 +24952,7 @@
       <c r="Y635" s="8"/>
       <c r="Z635" s="8"/>
     </row>
-    <row r="636" spans="1:26" ht="23.25" customHeight="1" outlineLevel="3">
+    <row r="636" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="3">
       <c r="A636" s="8"/>
       <c r="B636" s="8"/>
       <c r="C636" s="8"/>
@@ -24982,7 +24982,7 @@
       <c r="Y636" s="8"/>
       <c r="Z636" s="8"/>
     </row>
-    <row r="637" spans="1:26" ht="23.25" customHeight="1" outlineLevel="1">
+    <row r="637" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A637" s="11"/>
       <c r="B637" s="4" t="s">
         <v>778</v>
@@ -25014,7 +25014,7 @@
       <c r="Y637" s="11"/>
       <c r="Z637" s="11"/>
     </row>
-    <row r="638" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="638" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A638" s="8"/>
       <c r="B638" s="8"/>
       <c r="C638" s="9" t="s">
@@ -25046,7 +25046,7 @@
       <c r="Y638" s="8"/>
       <c r="Z638" s="8"/>
     </row>
-    <row r="639" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="639" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A639" s="8"/>
       <c r="B639" s="8"/>
       <c r="C639" s="8"/>
@@ -25076,7 +25076,7 @@
       <c r="Y639" s="8"/>
       <c r="Z639" s="8"/>
     </row>
-    <row r="640" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="640" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A640" s="8"/>
       <c r="B640" s="8"/>
       <c r="C640" s="8"/>
@@ -25106,7 +25106,7 @@
       <c r="Y640" s="8"/>
       <c r="Z640" s="8"/>
     </row>
-    <row r="641" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="641" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A641" s="8"/>
       <c r="B641" s="8"/>
       <c r="C641" s="8"/>
@@ -25136,7 +25136,7 @@
       <c r="Y641" s="8"/>
       <c r="Z641" s="8"/>
     </row>
-    <row r="642" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="642" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A642" s="8"/>
       <c r="B642" s="8"/>
       <c r="C642" s="8"/>
@@ -25166,7 +25166,7 @@
       <c r="Y642" s="8"/>
       <c r="Z642" s="8"/>
     </row>
-    <row r="643" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="643" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A643" s="8"/>
       <c r="B643" s="8"/>
       <c r="C643" s="8"/>
@@ -25196,7 +25196,7 @@
       <c r="Y643" s="8"/>
       <c r="Z643" s="8"/>
     </row>
-    <row r="644" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="644" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A644" s="8"/>
       <c r="B644" s="8"/>
       <c r="C644" s="8"/>
@@ -25226,7 +25226,7 @@
       <c r="Y644" s="8"/>
       <c r="Z644" s="8"/>
     </row>
-    <row r="645" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="645" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A645" s="8"/>
       <c r="B645" s="8"/>
       <c r="C645" s="8"/>
@@ -25256,7 +25256,7 @@
       <c r="Y645" s="8"/>
       <c r="Z645" s="8"/>
     </row>
-    <row r="646" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="646" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A646" s="8"/>
       <c r="B646" s="8"/>
       <c r="C646" s="9" t="s">
@@ -25288,7 +25288,7 @@
       <c r="Y646" s="8"/>
       <c r="Z646" s="8"/>
     </row>
-    <row r="647" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="647" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A647" s="8"/>
       <c r="B647" s="8"/>
       <c r="C647" s="8"/>
@@ -25318,7 +25318,7 @@
       <c r="Y647" s="8"/>
       <c r="Z647" s="8"/>
     </row>
-    <row r="648" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="648" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A648" s="8"/>
       <c r="B648" s="8"/>
       <c r="C648" s="8"/>
@@ -25350,7 +25350,7 @@
       <c r="Y648" s="8"/>
       <c r="Z648" s="8"/>
     </row>
-    <row r="649" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="649" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A649" s="8"/>
       <c r="B649" s="8"/>
       <c r="C649" s="8"/>
@@ -25382,7 +25382,7 @@
       <c r="Y649" s="8"/>
       <c r="Z649" s="8"/>
     </row>
-    <row r="650" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="650" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A650" s="8"/>
       <c r="B650" s="8"/>
       <c r="C650" s="8"/>
@@ -25414,7 +25414,7 @@
       <c r="Y650" s="8"/>
       <c r="Z650" s="8"/>
     </row>
-    <row r="651" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="651" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A651" s="8"/>
       <c r="B651" s="8"/>
       <c r="C651" s="8"/>
@@ -25446,7 +25446,7 @@
       <c r="Y651" s="8"/>
       <c r="Z651" s="8"/>
     </row>
-    <row r="652" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="652" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A652" s="8"/>
       <c r="B652" s="8"/>
       <c r="C652" s="8"/>
@@ -25478,7 +25478,7 @@
       <c r="Y652" s="8"/>
       <c r="Z652" s="8"/>
     </row>
-    <row r="653" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="653" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A653" s="8"/>
       <c r="B653" s="8"/>
       <c r="C653" s="8"/>
@@ -25510,7 +25510,7 @@
       <c r="Y653" s="8"/>
       <c r="Z653" s="8"/>
     </row>
-    <row r="654" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="654" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A654" s="8"/>
       <c r="B654" s="8"/>
       <c r="C654" s="8"/>
@@ -25542,7 +25542,7 @@
       <c r="Y654" s="8"/>
       <c r="Z654" s="8"/>
     </row>
-    <row r="655" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="655" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A655" s="8"/>
       <c r="B655" s="8"/>
       <c r="C655" s="8"/>
@@ -25572,7 +25572,7 @@
       <c r="Y655" s="8"/>
       <c r="Z655" s="8"/>
     </row>
-    <row r="656" spans="1:26" ht="23.25" customHeight="1" outlineLevel="1">
+    <row r="656" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A656" s="11"/>
       <c r="B656" s="4" t="s">
         <v>800</v>
@@ -25604,7 +25604,7 @@
       <c r="Y656" s="11"/>
       <c r="Z656" s="11"/>
     </row>
-    <row r="657" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="657" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A657" s="8"/>
       <c r="B657" s="8"/>
       <c r="C657" s="9" t="s">
@@ -25636,7 +25636,7 @@
       <c r="Y657" s="8"/>
       <c r="Z657" s="8"/>
     </row>
-    <row r="658" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="658" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A658" s="8"/>
       <c r="B658" s="8"/>
       <c r="C658" s="8"/>
@@ -25666,7 +25666,7 @@
       <c r="Y658" s="8"/>
       <c r="Z658" s="8"/>
     </row>
-    <row r="659" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="659" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A659" s="8"/>
       <c r="B659" s="8"/>
       <c r="C659" s="8"/>
@@ -25696,7 +25696,7 @@
       <c r="Y659" s="8"/>
       <c r="Z659" s="8"/>
     </row>
-    <row r="660" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="660" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A660" s="8"/>
       <c r="B660" s="8"/>
       <c r="C660" s="8"/>
@@ -25726,7 +25726,7 @@
       <c r="Y660" s="8"/>
       <c r="Z660" s="8"/>
     </row>
-    <row r="661" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="661" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A661" s="8"/>
       <c r="B661" s="8"/>
       <c r="C661" s="8"/>
@@ -25756,7 +25756,7 @@
       <c r="Y661" s="8"/>
       <c r="Z661" s="8"/>
     </row>
-    <row r="662" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="662" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A662" s="8"/>
       <c r="B662" s="8"/>
       <c r="C662" s="8"/>
@@ -25786,7 +25786,7 @@
       <c r="Y662" s="8"/>
       <c r="Z662" s="8"/>
     </row>
-    <row r="663" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
+    <row r="663" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A663" s="8"/>
       <c r="B663" s="8"/>
       <c r="C663" s="8"/>
@@ -62550,9 +62550,9 @@
   </sheetPr>
   <dimension ref="A1:Z203"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.4609375" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="3"/>
@@ -62601,7 +62601,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="23.25" customHeight="1" collapsed="1">
+    <row r="2" spans="1:26" ht="23.25" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>1442</v>
       </c>
@@ -62631,7 +62631,7 @@
       <c r="Y2" s="14"/>
       <c r="Z2" s="14"/>
     </row>
-    <row r="3" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="3" spans="1:26" ht="23.25" customHeight="1" outlineLevel="1">
       <c r="A3" s="16"/>
       <c r="B3" s="10" t="s">
         <v>194</v>
@@ -62663,7 +62663,7 @@
       <c r="Y3" s="14"/>
       <c r="Z3" s="14"/>
     </row>
-    <row r="4" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="4" spans="1:26" ht="23.25" customHeight="1" outlineLevel="1">
       <c r="A4" s="14"/>
       <c r="B4" s="10" t="s">
         <v>196</v>
@@ -62695,7 +62695,7 @@
       <c r="Y4" s="14"/>
       <c r="Z4" s="14"/>
     </row>
-    <row r="5" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="5" spans="1:26" ht="23.25" customHeight="1" outlineLevel="1">
       <c r="A5" s="14"/>
       <c r="B5" s="10" t="s">
         <v>198</v>
@@ -62727,7 +62727,7 @@
       <c r="Y5" s="14"/>
       <c r="Z5" s="14"/>
     </row>
-    <row r="6" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="6" spans="1:26" ht="23.25" customHeight="1" outlineLevel="1">
       <c r="A6" s="14"/>
       <c r="B6" s="10" t="s">
         <v>200</v>
@@ -62759,7 +62759,7 @@
       <c r="Y6" s="14"/>
       <c r="Z6" s="14"/>
     </row>
-    <row r="7" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="7" spans="1:26" ht="23.25" customHeight="1" outlineLevel="1">
       <c r="A7" s="14"/>
       <c r="B7" s="10" t="s">
         <v>202</v>
@@ -62791,7 +62791,7 @@
       <c r="Y7" s="14"/>
       <c r="Z7" s="14"/>
     </row>
-    <row r="8" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="8" spans="1:26" ht="23.25" customHeight="1" outlineLevel="1">
       <c r="A8" s="14"/>
       <c r="B8" s="10" t="s">
         <v>204</v>
@@ -62823,11 +62823,10 @@
       <c r="Y8" s="14"/>
       <c r="Z8" s="14"/>
     </row>
-    <row r="9" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A9" s="16" t="s">
+    <row r="9" spans="1:26" ht="23.25" customHeight="1" outlineLevel="1">
+      <c r="B9" s="16" t="s">
         <v>1449</v>
       </c>
-      <c r="B9" s="16"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
@@ -62853,7 +62852,7 @@
       <c r="Y9" s="14"/>
       <c r="Z9" s="14"/>
     </row>
-    <row r="10" spans="1:26" ht="23.25" customHeight="1" collapsed="1">
+    <row r="10" spans="1:26" ht="23.25" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -62885,7 +62884,7 @@
       <c r="Y10" s="14"/>
       <c r="Z10" s="14"/>
     </row>
-    <row r="11" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="1" collapsed="1">
+    <row r="11" spans="1:26" ht="23.25" customHeight="1" outlineLevel="1" collapsed="1">
       <c r="A11" s="14"/>
       <c r="B11" s="9" t="s">
         <v>8</v>
@@ -63137,7 +63136,7 @@
       <c r="Y18" s="14"/>
       <c r="Z18" s="14"/>
     </row>
-    <row r="19" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="1" collapsed="1">
+    <row r="19" spans="1:26" ht="23.25" customHeight="1" outlineLevel="1" collapsed="1">
       <c r="A19" s="14"/>
       <c r="B19" s="9" t="s">
         <v>12</v>
@@ -63573,7 +63572,7 @@
       <c r="Y30" s="14"/>
       <c r="Z30" s="14"/>
     </row>
-    <row r="31" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="1" collapsed="1">
+    <row r="31" spans="1:26" ht="23.25" customHeight="1" outlineLevel="1" collapsed="1">
       <c r="A31" s="14"/>
       <c r="B31" s="9" t="s">
         <v>17</v>
@@ -64587,7 +64586,7 @@
       <c r="Y63" s="14"/>
       <c r="Z63" s="14"/>
     </row>
-    <row r="64" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="1" collapsed="1">
+    <row r="64" spans="1:26" ht="23.25" customHeight="1" outlineLevel="1" collapsed="1">
       <c r="A64" s="14"/>
       <c r="B64" s="9" t="s">
         <v>112</v>
@@ -64649,7 +64648,7 @@
       <c r="Y65" s="14"/>
       <c r="Z65" s="14"/>
     </row>
-    <row r="66" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="1" collapsed="1">
+    <row r="66" spans="1:26" ht="23.25" customHeight="1" outlineLevel="1" collapsed="1">
       <c r="A66" s="14"/>
       <c r="B66" s="9" t="s">
         <v>115</v>
@@ -64711,7 +64710,7 @@
       <c r="Y67" s="14"/>
       <c r="Z67" s="14"/>
     </row>
-    <row r="68" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="68" spans="1:26" ht="23.25" customHeight="1" outlineLevel="1">
       <c r="A68" s="14"/>
       <c r="B68" s="9" t="s">
         <v>122</v>
@@ -64743,7 +64742,7 @@
       <c r="Y68" s="14"/>
       <c r="Z68" s="14"/>
     </row>
-    <row r="69" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="69" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
       <c r="A69" s="14"/>
       <c r="B69" s="14"/>
       <c r="C69" s="10" t="s">
@@ -64773,7 +64772,7 @@
       <c r="Y69" s="14"/>
       <c r="Z69" s="14"/>
     </row>
-    <row r="70" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="70" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
       <c r="C70" s="10" t="s">
@@ -64803,7 +64802,7 @@
       <c r="Y70" s="14"/>
       <c r="Z70" s="14"/>
     </row>
-    <row r="71" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="71" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
       <c r="C71" s="10" t="s">
@@ -64835,7 +64834,7 @@
       <c r="Y71" s="14"/>
       <c r="Z71" s="14"/>
     </row>
-    <row r="72" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="72" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
       <c r="A72" s="14"/>
       <c r="B72" s="14"/>
       <c r="C72" s="10"/>
@@ -64865,7 +64864,7 @@
       <c r="Y72" s="14"/>
       <c r="Z72" s="14"/>
     </row>
-    <row r="73" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="73" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
       <c r="A73" s="14"/>
       <c r="B73" s="14"/>
       <c r="C73" s="10" t="s">
@@ -64897,7 +64896,7 @@
       <c r="Y73" s="14"/>
       <c r="Z73" s="14"/>
     </row>
-    <row r="74" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="74" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
       <c r="A74" s="14"/>
       <c r="B74" s="14"/>
       <c r="C74" s="10"/>
@@ -64929,7 +64928,7 @@
       <c r="Y74" s="14"/>
       <c r="Z74" s="14"/>
     </row>
-    <row r="75" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="75" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
       <c r="A75" s="14"/>
       <c r="B75" s="14"/>
       <c r="C75" s="10"/>
@@ -64961,7 +64960,7 @@
       <c r="Y75" s="14"/>
       <c r="Z75" s="14"/>
     </row>
-    <row r="76" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="76" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
       <c r="A76" s="14"/>
       <c r="B76" s="14"/>
       <c r="C76" s="10"/>
@@ -64993,7 +64992,7 @@
       <c r="Y76" s="14"/>
       <c r="Z76" s="14"/>
     </row>
-    <row r="77" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="77" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
       <c r="A77" s="14"/>
       <c r="B77" s="14"/>
       <c r="C77" s="10"/>
@@ -65023,7 +65022,7 @@
       <c r="Y77" s="14"/>
       <c r="Z77" s="14"/>
     </row>
-    <row r="78" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="78" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
       <c r="C78" s="10"/>
@@ -65053,7 +65052,7 @@
       <c r="Y78" s="14"/>
       <c r="Z78" s="14"/>
     </row>
-    <row r="79" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="79" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" s="10" t="s">
@@ -65085,7 +65084,7 @@
       <c r="Y79" s="14"/>
       <c r="Z79" s="14"/>
     </row>
-    <row r="80" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="80" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
       <c r="A80" s="14"/>
       <c r="B80" s="14"/>
       <c r="C80" s="10" t="s">
@@ -65117,7 +65116,7 @@
       <c r="Y80" s="14"/>
       <c r="Z80" s="14"/>
     </row>
-    <row r="81" spans="1:26" ht="23.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="81" spans="1:26" ht="23.25" customHeight="1" outlineLevel="2">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
       <c r="C81" s="10" t="s">
